--- a/Week_1/generate_excel_from_api/generated_metmuseum_objects.xlsx
+++ b/Week_1/generate_excel_from_api/generated_metmuseum_objects.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BW21"/>
+  <dimension ref="A1:CT41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,6 +807,121 @@
       <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>tags_2_Wikidata_URL</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>measurements_0_elementMeasurements_Depth</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>measurements_0_elementMeasurements_Height</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>measurements_0_elementMeasurements_Width</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>constituents_1_constituentID</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>constituents_1_role</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>constituents_1_name</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>constituents_1_constituentULAN_URL</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>constituents_1_constituentWikidata_URL</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>constituents_1_gender</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>measurements_0_elementMeasurements_Weight</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>measurements_1_elementName</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>measurements_1_elementDescription</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>measurements_1_elementMeasurements_Diameter</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>measurements_1_elementMeasurements_Height</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>measurements_1_elementMeasurements_Weight</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>measurements_2_elementName</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>measurements_2_elementDescription</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>measurements_2_elementMeasurements_Height</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>tags_3_term</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>tags_3_AAT_URL</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>tags_3_Wikidata_URL</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>additionalImages_0</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>additionalImages_1</t>
         </is>
       </c>
     </row>
@@ -1004,6 +1119,29 @@
       <c r="BU2" t="inlineStr"/>
       <c r="BV2" t="inlineStr"/>
       <c r="BW2" t="inlineStr"/>
+      <c r="BX2" t="inlineStr"/>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2" t="inlineStr"/>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2" t="inlineStr"/>
+      <c r="CC2" t="inlineStr"/>
+      <c r="CD2" t="inlineStr"/>
+      <c r="CE2" t="inlineStr"/>
+      <c r="CF2" t="inlineStr"/>
+      <c r="CG2" t="inlineStr"/>
+      <c r="CH2" t="inlineStr"/>
+      <c r="CI2" t="inlineStr"/>
+      <c r="CJ2" t="inlineStr"/>
+      <c r="CK2" t="inlineStr"/>
+      <c r="CL2" t="inlineStr"/>
+      <c r="CM2" t="inlineStr"/>
+      <c r="CN2" t="inlineStr"/>
+      <c r="CO2" t="inlineStr"/>
+      <c r="CP2" t="inlineStr"/>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2" t="inlineStr"/>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1195,6 +1333,29 @@
       <c r="BU3" t="inlineStr"/>
       <c r="BV3" t="inlineStr"/>
       <c r="BW3" t="inlineStr"/>
+      <c r="BX3" t="inlineStr"/>
+      <c r="BY3" t="inlineStr"/>
+      <c r="BZ3" t="inlineStr"/>
+      <c r="CA3" t="inlineStr"/>
+      <c r="CB3" t="inlineStr"/>
+      <c r="CC3" t="inlineStr"/>
+      <c r="CD3" t="inlineStr"/>
+      <c r="CE3" t="inlineStr"/>
+      <c r="CF3" t="inlineStr"/>
+      <c r="CG3" t="inlineStr"/>
+      <c r="CH3" t="inlineStr"/>
+      <c r="CI3" t="inlineStr"/>
+      <c r="CJ3" t="inlineStr"/>
+      <c r="CK3" t="inlineStr"/>
+      <c r="CL3" t="inlineStr"/>
+      <c r="CM3" t="inlineStr"/>
+      <c r="CN3" t="inlineStr"/>
+      <c r="CO3" t="inlineStr"/>
+      <c r="CP3" t="inlineStr"/>
+      <c r="CQ3" t="inlineStr"/>
+      <c r="CR3" t="inlineStr"/>
+      <c r="CS3" t="inlineStr"/>
+      <c r="CT3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1346,6 +1507,29 @@
       <c r="BU4" t="inlineStr"/>
       <c r="BV4" t="inlineStr"/>
       <c r="BW4" t="inlineStr"/>
+      <c r="BX4" t="inlineStr"/>
+      <c r="BY4" t="inlineStr"/>
+      <c r="BZ4" t="inlineStr"/>
+      <c r="CA4" t="inlineStr"/>
+      <c r="CB4" t="inlineStr"/>
+      <c r="CC4" t="inlineStr"/>
+      <c r="CD4" t="inlineStr"/>
+      <c r="CE4" t="inlineStr"/>
+      <c r="CF4" t="inlineStr"/>
+      <c r="CG4" t="inlineStr"/>
+      <c r="CH4" t="inlineStr"/>
+      <c r="CI4" t="inlineStr"/>
+      <c r="CJ4" t="inlineStr"/>
+      <c r="CK4" t="inlineStr"/>
+      <c r="CL4" t="inlineStr"/>
+      <c r="CM4" t="inlineStr"/>
+      <c r="CN4" t="inlineStr"/>
+      <c r="CO4" t="inlineStr"/>
+      <c r="CP4" t="inlineStr"/>
+      <c r="CQ4" t="inlineStr"/>
+      <c r="CR4" t="inlineStr"/>
+      <c r="CS4" t="inlineStr"/>
+      <c r="CT4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1497,6 +1681,29 @@
       <c r="BU5" t="inlineStr"/>
       <c r="BV5" t="inlineStr"/>
       <c r="BW5" t="inlineStr"/>
+      <c r="BX5" t="inlineStr"/>
+      <c r="BY5" t="inlineStr"/>
+      <c r="BZ5" t="inlineStr"/>
+      <c r="CA5" t="inlineStr"/>
+      <c r="CB5" t="inlineStr"/>
+      <c r="CC5" t="inlineStr"/>
+      <c r="CD5" t="inlineStr"/>
+      <c r="CE5" t="inlineStr"/>
+      <c r="CF5" t="inlineStr"/>
+      <c r="CG5" t="inlineStr"/>
+      <c r="CH5" t="inlineStr"/>
+      <c r="CI5" t="inlineStr"/>
+      <c r="CJ5" t="inlineStr"/>
+      <c r="CK5" t="inlineStr"/>
+      <c r="CL5" t="inlineStr"/>
+      <c r="CM5" t="inlineStr"/>
+      <c r="CN5" t="inlineStr"/>
+      <c r="CO5" t="inlineStr"/>
+      <c r="CP5" t="inlineStr"/>
+      <c r="CQ5" t="inlineStr"/>
+      <c r="CR5" t="inlineStr"/>
+      <c r="CS5" t="inlineStr"/>
+      <c r="CT5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1648,6 +1855,29 @@
       <c r="BU6" t="inlineStr"/>
       <c r="BV6" t="inlineStr"/>
       <c r="BW6" t="inlineStr"/>
+      <c r="BX6" t="inlineStr"/>
+      <c r="BY6" t="inlineStr"/>
+      <c r="BZ6" t="inlineStr"/>
+      <c r="CA6" t="inlineStr"/>
+      <c r="CB6" t="inlineStr"/>
+      <c r="CC6" t="inlineStr"/>
+      <c r="CD6" t="inlineStr"/>
+      <c r="CE6" t="inlineStr"/>
+      <c r="CF6" t="inlineStr"/>
+      <c r="CG6" t="inlineStr"/>
+      <c r="CH6" t="inlineStr"/>
+      <c r="CI6" t="inlineStr"/>
+      <c r="CJ6" t="inlineStr"/>
+      <c r="CK6" t="inlineStr"/>
+      <c r="CL6" t="inlineStr"/>
+      <c r="CM6" t="inlineStr"/>
+      <c r="CN6" t="inlineStr"/>
+      <c r="CO6" t="inlineStr"/>
+      <c r="CP6" t="inlineStr"/>
+      <c r="CQ6" t="inlineStr"/>
+      <c r="CR6" t="inlineStr"/>
+      <c r="CS6" t="inlineStr"/>
+      <c r="CT6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1799,6 +2029,29 @@
       <c r="BU7" t="inlineStr"/>
       <c r="BV7" t="inlineStr"/>
       <c r="BW7" t="inlineStr"/>
+      <c r="BX7" t="inlineStr"/>
+      <c r="BY7" t="inlineStr"/>
+      <c r="BZ7" t="inlineStr"/>
+      <c r="CA7" t="inlineStr"/>
+      <c r="CB7" t="inlineStr"/>
+      <c r="CC7" t="inlineStr"/>
+      <c r="CD7" t="inlineStr"/>
+      <c r="CE7" t="inlineStr"/>
+      <c r="CF7" t="inlineStr"/>
+      <c r="CG7" t="inlineStr"/>
+      <c r="CH7" t="inlineStr"/>
+      <c r="CI7" t="inlineStr"/>
+      <c r="CJ7" t="inlineStr"/>
+      <c r="CK7" t="inlineStr"/>
+      <c r="CL7" t="inlineStr"/>
+      <c r="CM7" t="inlineStr"/>
+      <c r="CN7" t="inlineStr"/>
+      <c r="CO7" t="inlineStr"/>
+      <c r="CP7" t="inlineStr"/>
+      <c r="CQ7" t="inlineStr"/>
+      <c r="CR7" t="inlineStr"/>
+      <c r="CS7" t="inlineStr"/>
+      <c r="CT7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1974,6 +2227,29 @@
       <c r="BU8" t="inlineStr"/>
       <c r="BV8" t="inlineStr"/>
       <c r="BW8" t="inlineStr"/>
+      <c r="BX8" t="inlineStr"/>
+      <c r="BY8" t="inlineStr"/>
+      <c r="BZ8" t="inlineStr"/>
+      <c r="CA8" t="inlineStr"/>
+      <c r="CB8" t="inlineStr"/>
+      <c r="CC8" t="inlineStr"/>
+      <c r="CD8" t="inlineStr"/>
+      <c r="CE8" t="inlineStr"/>
+      <c r="CF8" t="inlineStr"/>
+      <c r="CG8" t="inlineStr"/>
+      <c r="CH8" t="inlineStr"/>
+      <c r="CI8" t="inlineStr"/>
+      <c r="CJ8" t="inlineStr"/>
+      <c r="CK8" t="inlineStr"/>
+      <c r="CL8" t="inlineStr"/>
+      <c r="CM8" t="inlineStr"/>
+      <c r="CN8" t="inlineStr"/>
+      <c r="CO8" t="inlineStr"/>
+      <c r="CP8" t="inlineStr"/>
+      <c r="CQ8" t="inlineStr"/>
+      <c r="CR8" t="inlineStr"/>
+      <c r="CS8" t="inlineStr"/>
+      <c r="CT8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2161,6 +2437,29 @@
           <t>https://www.wikidata.org/wiki/Q2092297</t>
         </is>
       </c>
+      <c r="BX9" t="inlineStr"/>
+      <c r="BY9" t="inlineStr"/>
+      <c r="BZ9" t="inlineStr"/>
+      <c r="CA9" t="inlineStr"/>
+      <c r="CB9" t="inlineStr"/>
+      <c r="CC9" t="inlineStr"/>
+      <c r="CD9" t="inlineStr"/>
+      <c r="CE9" t="inlineStr"/>
+      <c r="CF9" t="inlineStr"/>
+      <c r="CG9" t="inlineStr"/>
+      <c r="CH9" t="inlineStr"/>
+      <c r="CI9" t="inlineStr"/>
+      <c r="CJ9" t="inlineStr"/>
+      <c r="CK9" t="inlineStr"/>
+      <c r="CL9" t="inlineStr"/>
+      <c r="CM9" t="inlineStr"/>
+      <c r="CN9" t="inlineStr"/>
+      <c r="CO9" t="inlineStr"/>
+      <c r="CP9" t="inlineStr"/>
+      <c r="CQ9" t="inlineStr"/>
+      <c r="CR9" t="inlineStr"/>
+      <c r="CS9" t="inlineStr"/>
+      <c r="CT9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2312,6 +2611,29 @@
       <c r="BU10" t="inlineStr"/>
       <c r="BV10" t="inlineStr"/>
       <c r="BW10" t="inlineStr"/>
+      <c r="BX10" t="inlineStr"/>
+      <c r="BY10" t="inlineStr"/>
+      <c r="BZ10" t="inlineStr"/>
+      <c r="CA10" t="inlineStr"/>
+      <c r="CB10" t="inlineStr"/>
+      <c r="CC10" t="inlineStr"/>
+      <c r="CD10" t="inlineStr"/>
+      <c r="CE10" t="inlineStr"/>
+      <c r="CF10" t="inlineStr"/>
+      <c r="CG10" t="inlineStr"/>
+      <c r="CH10" t="inlineStr"/>
+      <c r="CI10" t="inlineStr"/>
+      <c r="CJ10" t="inlineStr"/>
+      <c r="CK10" t="inlineStr"/>
+      <c r="CL10" t="inlineStr"/>
+      <c r="CM10" t="inlineStr"/>
+      <c r="CN10" t="inlineStr"/>
+      <c r="CO10" t="inlineStr"/>
+      <c r="CP10" t="inlineStr"/>
+      <c r="CQ10" t="inlineStr"/>
+      <c r="CR10" t="inlineStr"/>
+      <c r="CS10" t="inlineStr"/>
+      <c r="CT10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2513,6 +2835,29 @@
       <c r="BU11" t="inlineStr"/>
       <c r="BV11" t="inlineStr"/>
       <c r="BW11" t="inlineStr"/>
+      <c r="BX11" t="inlineStr"/>
+      <c r="BY11" t="inlineStr"/>
+      <c r="BZ11" t="inlineStr"/>
+      <c r="CA11" t="inlineStr"/>
+      <c r="CB11" t="inlineStr"/>
+      <c r="CC11" t="inlineStr"/>
+      <c r="CD11" t="inlineStr"/>
+      <c r="CE11" t="inlineStr"/>
+      <c r="CF11" t="inlineStr"/>
+      <c r="CG11" t="inlineStr"/>
+      <c r="CH11" t="inlineStr"/>
+      <c r="CI11" t="inlineStr"/>
+      <c r="CJ11" t="inlineStr"/>
+      <c r="CK11" t="inlineStr"/>
+      <c r="CL11" t="inlineStr"/>
+      <c r="CM11" t="inlineStr"/>
+      <c r="CN11" t="inlineStr"/>
+      <c r="CO11" t="inlineStr"/>
+      <c r="CP11" t="inlineStr"/>
+      <c r="CQ11" t="inlineStr"/>
+      <c r="CR11" t="inlineStr"/>
+      <c r="CS11" t="inlineStr"/>
+      <c r="CT11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2714,6 +3059,29 @@
       <c r="BU12" t="inlineStr"/>
       <c r="BV12" t="inlineStr"/>
       <c r="BW12" t="inlineStr"/>
+      <c r="BX12" t="inlineStr"/>
+      <c r="BY12" t="inlineStr"/>
+      <c r="BZ12" t="inlineStr"/>
+      <c r="CA12" t="inlineStr"/>
+      <c r="CB12" t="inlineStr"/>
+      <c r="CC12" t="inlineStr"/>
+      <c r="CD12" t="inlineStr"/>
+      <c r="CE12" t="inlineStr"/>
+      <c r="CF12" t="inlineStr"/>
+      <c r="CG12" t="inlineStr"/>
+      <c r="CH12" t="inlineStr"/>
+      <c r="CI12" t="inlineStr"/>
+      <c r="CJ12" t="inlineStr"/>
+      <c r="CK12" t="inlineStr"/>
+      <c r="CL12" t="inlineStr"/>
+      <c r="CM12" t="inlineStr"/>
+      <c r="CN12" t="inlineStr"/>
+      <c r="CO12" t="inlineStr"/>
+      <c r="CP12" t="inlineStr"/>
+      <c r="CQ12" t="inlineStr"/>
+      <c r="CR12" t="inlineStr"/>
+      <c r="CS12" t="inlineStr"/>
+      <c r="CT12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2919,6 +3287,29 @@
       <c r="BU13" t="inlineStr"/>
       <c r="BV13" t="inlineStr"/>
       <c r="BW13" t="inlineStr"/>
+      <c r="BX13" t="inlineStr"/>
+      <c r="BY13" t="inlineStr"/>
+      <c r="BZ13" t="inlineStr"/>
+      <c r="CA13" t="inlineStr"/>
+      <c r="CB13" t="inlineStr"/>
+      <c r="CC13" t="inlineStr"/>
+      <c r="CD13" t="inlineStr"/>
+      <c r="CE13" t="inlineStr"/>
+      <c r="CF13" t="inlineStr"/>
+      <c r="CG13" t="inlineStr"/>
+      <c r="CH13" t="inlineStr"/>
+      <c r="CI13" t="inlineStr"/>
+      <c r="CJ13" t="inlineStr"/>
+      <c r="CK13" t="inlineStr"/>
+      <c r="CL13" t="inlineStr"/>
+      <c r="CM13" t="inlineStr"/>
+      <c r="CN13" t="inlineStr"/>
+      <c r="CO13" t="inlineStr"/>
+      <c r="CP13" t="inlineStr"/>
+      <c r="CQ13" t="inlineStr"/>
+      <c r="CR13" t="inlineStr"/>
+      <c r="CS13" t="inlineStr"/>
+      <c r="CT13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -3120,6 +3511,29 @@
       <c r="BU14" t="inlineStr"/>
       <c r="BV14" t="inlineStr"/>
       <c r="BW14" t="inlineStr"/>
+      <c r="BX14" t="inlineStr"/>
+      <c r="BY14" t="inlineStr"/>
+      <c r="BZ14" t="inlineStr"/>
+      <c r="CA14" t="inlineStr"/>
+      <c r="CB14" t="inlineStr"/>
+      <c r="CC14" t="inlineStr"/>
+      <c r="CD14" t="inlineStr"/>
+      <c r="CE14" t="inlineStr"/>
+      <c r="CF14" t="inlineStr"/>
+      <c r="CG14" t="inlineStr"/>
+      <c r="CH14" t="inlineStr"/>
+      <c r="CI14" t="inlineStr"/>
+      <c r="CJ14" t="inlineStr"/>
+      <c r="CK14" t="inlineStr"/>
+      <c r="CL14" t="inlineStr"/>
+      <c r="CM14" t="inlineStr"/>
+      <c r="CN14" t="inlineStr"/>
+      <c r="CO14" t="inlineStr"/>
+      <c r="CP14" t="inlineStr"/>
+      <c r="CQ14" t="inlineStr"/>
+      <c r="CR14" t="inlineStr"/>
+      <c r="CS14" t="inlineStr"/>
+      <c r="CT14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -3321,6 +3735,29 @@
       <c r="BU15" t="inlineStr"/>
       <c r="BV15" t="inlineStr"/>
       <c r="BW15" t="inlineStr"/>
+      <c r="BX15" t="inlineStr"/>
+      <c r="BY15" t="inlineStr"/>
+      <c r="BZ15" t="inlineStr"/>
+      <c r="CA15" t="inlineStr"/>
+      <c r="CB15" t="inlineStr"/>
+      <c r="CC15" t="inlineStr"/>
+      <c r="CD15" t="inlineStr"/>
+      <c r="CE15" t="inlineStr"/>
+      <c r="CF15" t="inlineStr"/>
+      <c r="CG15" t="inlineStr"/>
+      <c r="CH15" t="inlineStr"/>
+      <c r="CI15" t="inlineStr"/>
+      <c r="CJ15" t="inlineStr"/>
+      <c r="CK15" t="inlineStr"/>
+      <c r="CL15" t="inlineStr"/>
+      <c r="CM15" t="inlineStr"/>
+      <c r="CN15" t="inlineStr"/>
+      <c r="CO15" t="inlineStr"/>
+      <c r="CP15" t="inlineStr"/>
+      <c r="CQ15" t="inlineStr"/>
+      <c r="CR15" t="inlineStr"/>
+      <c r="CS15" t="inlineStr"/>
+      <c r="CT15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -3484,6 +3921,29 @@
       <c r="BU16" t="inlineStr"/>
       <c r="BV16" t="inlineStr"/>
       <c r="BW16" t="inlineStr"/>
+      <c r="BX16" t="inlineStr"/>
+      <c r="BY16" t="inlineStr"/>
+      <c r="BZ16" t="inlineStr"/>
+      <c r="CA16" t="inlineStr"/>
+      <c r="CB16" t="inlineStr"/>
+      <c r="CC16" t="inlineStr"/>
+      <c r="CD16" t="inlineStr"/>
+      <c r="CE16" t="inlineStr"/>
+      <c r="CF16" t="inlineStr"/>
+      <c r="CG16" t="inlineStr"/>
+      <c r="CH16" t="inlineStr"/>
+      <c r="CI16" t="inlineStr"/>
+      <c r="CJ16" t="inlineStr"/>
+      <c r="CK16" t="inlineStr"/>
+      <c r="CL16" t="inlineStr"/>
+      <c r="CM16" t="inlineStr"/>
+      <c r="CN16" t="inlineStr"/>
+      <c r="CO16" t="inlineStr"/>
+      <c r="CP16" t="inlineStr"/>
+      <c r="CQ16" t="inlineStr"/>
+      <c r="CR16" t="inlineStr"/>
+      <c r="CS16" t="inlineStr"/>
+      <c r="CT16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -3647,6 +4107,29 @@
       <c r="BU17" t="inlineStr"/>
       <c r="BV17" t="inlineStr"/>
       <c r="BW17" t="inlineStr"/>
+      <c r="BX17" t="inlineStr"/>
+      <c r="BY17" t="inlineStr"/>
+      <c r="BZ17" t="inlineStr"/>
+      <c r="CA17" t="inlineStr"/>
+      <c r="CB17" t="inlineStr"/>
+      <c r="CC17" t="inlineStr"/>
+      <c r="CD17" t="inlineStr"/>
+      <c r="CE17" t="inlineStr"/>
+      <c r="CF17" t="inlineStr"/>
+      <c r="CG17" t="inlineStr"/>
+      <c r="CH17" t="inlineStr"/>
+      <c r="CI17" t="inlineStr"/>
+      <c r="CJ17" t="inlineStr"/>
+      <c r="CK17" t="inlineStr"/>
+      <c r="CL17" t="inlineStr"/>
+      <c r="CM17" t="inlineStr"/>
+      <c r="CN17" t="inlineStr"/>
+      <c r="CO17" t="inlineStr"/>
+      <c r="CP17" t="inlineStr"/>
+      <c r="CQ17" t="inlineStr"/>
+      <c r="CR17" t="inlineStr"/>
+      <c r="CS17" t="inlineStr"/>
+      <c r="CT17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3810,6 +4293,29 @@
       <c r="BU18" t="inlineStr"/>
       <c r="BV18" t="inlineStr"/>
       <c r="BW18" t="inlineStr"/>
+      <c r="BX18" t="inlineStr"/>
+      <c r="BY18" t="inlineStr"/>
+      <c r="BZ18" t="inlineStr"/>
+      <c r="CA18" t="inlineStr"/>
+      <c r="CB18" t="inlineStr"/>
+      <c r="CC18" t="inlineStr"/>
+      <c r="CD18" t="inlineStr"/>
+      <c r="CE18" t="inlineStr"/>
+      <c r="CF18" t="inlineStr"/>
+      <c r="CG18" t="inlineStr"/>
+      <c r="CH18" t="inlineStr"/>
+      <c r="CI18" t="inlineStr"/>
+      <c r="CJ18" t="inlineStr"/>
+      <c r="CK18" t="inlineStr"/>
+      <c r="CL18" t="inlineStr"/>
+      <c r="CM18" t="inlineStr"/>
+      <c r="CN18" t="inlineStr"/>
+      <c r="CO18" t="inlineStr"/>
+      <c r="CP18" t="inlineStr"/>
+      <c r="CQ18" t="inlineStr"/>
+      <c r="CR18" t="inlineStr"/>
+      <c r="CS18" t="inlineStr"/>
+      <c r="CT18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3973,6 +4479,29 @@
       <c r="BU19" t="inlineStr"/>
       <c r="BV19" t="inlineStr"/>
       <c r="BW19" t="inlineStr"/>
+      <c r="BX19" t="inlineStr"/>
+      <c r="BY19" t="inlineStr"/>
+      <c r="BZ19" t="inlineStr"/>
+      <c r="CA19" t="inlineStr"/>
+      <c r="CB19" t="inlineStr"/>
+      <c r="CC19" t="inlineStr"/>
+      <c r="CD19" t="inlineStr"/>
+      <c r="CE19" t="inlineStr"/>
+      <c r="CF19" t="inlineStr"/>
+      <c r="CG19" t="inlineStr"/>
+      <c r="CH19" t="inlineStr"/>
+      <c r="CI19" t="inlineStr"/>
+      <c r="CJ19" t="inlineStr"/>
+      <c r="CK19" t="inlineStr"/>
+      <c r="CL19" t="inlineStr"/>
+      <c r="CM19" t="inlineStr"/>
+      <c r="CN19" t="inlineStr"/>
+      <c r="CO19" t="inlineStr"/>
+      <c r="CP19" t="inlineStr"/>
+      <c r="CQ19" t="inlineStr"/>
+      <c r="CR19" t="inlineStr"/>
+      <c r="CS19" t="inlineStr"/>
+      <c r="CT19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -4136,6 +4665,29 @@
       <c r="BU20" t="inlineStr"/>
       <c r="BV20" t="inlineStr"/>
       <c r="BW20" t="inlineStr"/>
+      <c r="BX20" t="inlineStr"/>
+      <c r="BY20" t="inlineStr"/>
+      <c r="BZ20" t="inlineStr"/>
+      <c r="CA20" t="inlineStr"/>
+      <c r="CB20" t="inlineStr"/>
+      <c r="CC20" t="inlineStr"/>
+      <c r="CD20" t="inlineStr"/>
+      <c r="CE20" t="inlineStr"/>
+      <c r="CF20" t="inlineStr"/>
+      <c r="CG20" t="inlineStr"/>
+      <c r="CH20" t="inlineStr"/>
+      <c r="CI20" t="inlineStr"/>
+      <c r="CJ20" t="inlineStr"/>
+      <c r="CK20" t="inlineStr"/>
+      <c r="CL20" t="inlineStr"/>
+      <c r="CM20" t="inlineStr"/>
+      <c r="CN20" t="inlineStr"/>
+      <c r="CO20" t="inlineStr"/>
+      <c r="CP20" t="inlineStr"/>
+      <c r="CQ20" t="inlineStr"/>
+      <c r="CR20" t="inlineStr"/>
+      <c r="CS20" t="inlineStr"/>
+      <c r="CT20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -4299,6 +4851,4469 @@
       <c r="BU21" t="inlineStr"/>
       <c r="BV21" t="inlineStr"/>
       <c r="BW21" t="inlineStr"/>
+      <c r="BX21" t="inlineStr"/>
+      <c r="BY21" t="inlineStr"/>
+      <c r="BZ21" t="inlineStr"/>
+      <c r="CA21" t="inlineStr"/>
+      <c r="CB21" t="inlineStr"/>
+      <c r="CC21" t="inlineStr"/>
+      <c r="CD21" t="inlineStr"/>
+      <c r="CE21" t="inlineStr"/>
+      <c r="CF21" t="inlineStr"/>
+      <c r="CG21" t="inlineStr"/>
+      <c r="CH21" t="inlineStr"/>
+      <c r="CI21" t="inlineStr"/>
+      <c r="CJ21" t="inlineStr"/>
+      <c r="CK21" t="inlineStr"/>
+      <c r="CL21" t="inlineStr"/>
+      <c r="CM21" t="inlineStr"/>
+      <c r="CN21" t="inlineStr"/>
+      <c r="CO21" t="inlineStr"/>
+      <c r="CP21" t="inlineStr"/>
+      <c r="CQ21" t="inlineStr"/>
+      <c r="CR21" t="inlineStr"/>
+      <c r="CS21" t="inlineStr"/>
+      <c r="CT21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>16.74.32</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1916</t>
+        </is>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>The American Wing</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Peso</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Coin, 1/4 Peso</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Mexican</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>1859</t>
+        </is>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1859</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1859</v>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>Bronze or copper</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>Diam. 1 1/8 in. (2.9 cm)</t>
+        </is>
+      </c>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Gift of Mrs. Russell Sage, 1916</t>
+        </is>
+      </c>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>Made in</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="inlineStr"/>
+      <c r="AS22" t="inlineStr"/>
+      <c r="AT22" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="AU22" t="inlineStr"/>
+      <c r="AV22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr"/>
+      <c r="AX22" t="inlineStr"/>
+      <c r="AY22" t="inlineStr"/>
+      <c r="AZ22" t="inlineStr"/>
+      <c r="BA22" t="inlineStr"/>
+      <c r="BB22" t="inlineStr"/>
+      <c r="BC22" t="inlineStr"/>
+      <c r="BD22" t="inlineStr">
+        <is>
+          <t>2021-04-06T04:41:04.967Z</t>
+        </is>
+      </c>
+      <c r="BE22" t="inlineStr">
+        <is>
+          <t>Metropolitan Museum of Art, New York, NY</t>
+        </is>
+      </c>
+      <c r="BF22" t="inlineStr">
+        <is>
+          <t>https://www.metmuseum.org/art/collection/search/21</t>
+        </is>
+      </c>
+      <c r="BG22" t="inlineStr"/>
+      <c r="BH22" t="inlineStr"/>
+      <c r="BI22" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ22" t="inlineStr"/>
+      <c r="BK22" t="inlineStr"/>
+      <c r="BL22" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="BM22" t="inlineStr">
+        <is>
+          <t>Object diameter</t>
+        </is>
+      </c>
+      <c r="BN22" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BO22" t="inlineStr"/>
+      <c r="BP22" t="inlineStr"/>
+      <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
+      <c r="BS22" t="inlineStr"/>
+      <c r="BT22" t="inlineStr"/>
+      <c r="BU22" t="inlineStr"/>
+      <c r="BV22" t="inlineStr"/>
+      <c r="BW22" t="inlineStr"/>
+      <c r="BX22" t="inlineStr"/>
+      <c r="BY22" t="inlineStr"/>
+      <c r="BZ22" t="inlineStr"/>
+      <c r="CA22" t="inlineStr"/>
+      <c r="CB22" t="inlineStr"/>
+      <c r="CC22" t="inlineStr"/>
+      <c r="CD22" t="inlineStr"/>
+      <c r="CE22" t="inlineStr"/>
+      <c r="CF22" t="inlineStr"/>
+      <c r="CG22" t="inlineStr"/>
+      <c r="CH22" t="inlineStr"/>
+      <c r="CI22" t="inlineStr"/>
+      <c r="CJ22" t="inlineStr"/>
+      <c r="CK22" t="inlineStr"/>
+      <c r="CL22" t="inlineStr"/>
+      <c r="CM22" t="inlineStr"/>
+      <c r="CN22" t="inlineStr"/>
+      <c r="CO22" t="inlineStr"/>
+      <c r="CP22" t="inlineStr"/>
+      <c r="CQ22" t="inlineStr"/>
+      <c r="CR22" t="inlineStr"/>
+      <c r="CS22" t="inlineStr"/>
+      <c r="CT22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>16.74.43</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1916</t>
+        </is>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>The American Wing</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Coin</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Coin, 1/4 Real</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Guatemalan</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>1881</t>
+        </is>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1881</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1881</v>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>Diam. 1/2 in. (1.3 cm)</t>
+        </is>
+      </c>
+      <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Gift of Mrs. Russell Sage, 1916</t>
+        </is>
+      </c>
+      <c r="AP23" t="inlineStr">
+        <is>
+          <t>Made in</t>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="inlineStr"/>
+      <c r="AT23" t="inlineStr">
+        <is>
+          <t>Guatemala</t>
+        </is>
+      </c>
+      <c r="AU23" t="inlineStr"/>
+      <c r="AV23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr"/>
+      <c r="AX23" t="inlineStr"/>
+      <c r="AY23" t="inlineStr"/>
+      <c r="AZ23" t="inlineStr"/>
+      <c r="BA23" t="inlineStr"/>
+      <c r="BB23" t="inlineStr"/>
+      <c r="BC23" t="inlineStr"/>
+      <c r="BD23" t="inlineStr">
+        <is>
+          <t>2021-04-06T04:41:04.967Z</t>
+        </is>
+      </c>
+      <c r="BE23" t="inlineStr">
+        <is>
+          <t>Metropolitan Museum of Art, New York, NY</t>
+        </is>
+      </c>
+      <c r="BF23" t="inlineStr">
+        <is>
+          <t>https://www.metmuseum.org/art/collection/search/22</t>
+        </is>
+      </c>
+      <c r="BG23" t="inlineStr"/>
+      <c r="BH23" t="inlineStr"/>
+      <c r="BI23" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ23" t="inlineStr"/>
+      <c r="BK23" t="inlineStr"/>
+      <c r="BL23" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="BM23" t="inlineStr">
+        <is>
+          <t>Object diameter</t>
+        </is>
+      </c>
+      <c r="BN23" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BO23" t="inlineStr"/>
+      <c r="BP23" t="inlineStr"/>
+      <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
+      <c r="BS23" t="inlineStr"/>
+      <c r="BT23" t="inlineStr"/>
+      <c r="BU23" t="inlineStr"/>
+      <c r="BV23" t="inlineStr"/>
+      <c r="BW23" t="inlineStr"/>
+      <c r="BX23" t="inlineStr"/>
+      <c r="BY23" t="inlineStr"/>
+      <c r="BZ23" t="inlineStr"/>
+      <c r="CA23" t="inlineStr"/>
+      <c r="CB23" t="inlineStr"/>
+      <c r="CC23" t="inlineStr"/>
+      <c r="CD23" t="inlineStr"/>
+      <c r="CE23" t="inlineStr"/>
+      <c r="CF23" t="inlineStr"/>
+      <c r="CG23" t="inlineStr"/>
+      <c r="CH23" t="inlineStr"/>
+      <c r="CI23" t="inlineStr"/>
+      <c r="CJ23" t="inlineStr"/>
+      <c r="CK23" t="inlineStr"/>
+      <c r="CL23" t="inlineStr"/>
+      <c r="CM23" t="inlineStr"/>
+      <c r="CN23" t="inlineStr"/>
+      <c r="CO23" t="inlineStr"/>
+      <c r="CP23" t="inlineStr"/>
+      <c r="CQ23" t="inlineStr"/>
+      <c r="CR23" t="inlineStr"/>
+      <c r="CS23" t="inlineStr"/>
+      <c r="CT23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>16.74.44</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1916</t>
+        </is>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>The American Wing</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Coin</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Coin, 1/4 Real</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Guatemalan</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>1878</t>
+        </is>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1878</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1878</v>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>Diam. 1/2 in. (1.3 cm)</t>
+        </is>
+      </c>
+      <c r="AN24" t="inlineStr"/>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Gift of Mrs. Russell Sage, 1916</t>
+        </is>
+      </c>
+      <c r="AP24" t="inlineStr">
+        <is>
+          <t>Made in</t>
+        </is>
+      </c>
+      <c r="AQ24" t="inlineStr"/>
+      <c r="AR24" t="inlineStr"/>
+      <c r="AS24" t="inlineStr"/>
+      <c r="AT24" t="inlineStr">
+        <is>
+          <t>Guatemala</t>
+        </is>
+      </c>
+      <c r="AU24" t="inlineStr"/>
+      <c r="AV24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr"/>
+      <c r="AX24" t="inlineStr"/>
+      <c r="AY24" t="inlineStr"/>
+      <c r="AZ24" t="inlineStr"/>
+      <c r="BA24" t="inlineStr"/>
+      <c r="BB24" t="inlineStr"/>
+      <c r="BC24" t="inlineStr"/>
+      <c r="BD24" t="inlineStr">
+        <is>
+          <t>2021-04-06T04:41:04.967Z</t>
+        </is>
+      </c>
+      <c r="BE24" t="inlineStr">
+        <is>
+          <t>Metropolitan Museum of Art, New York, NY</t>
+        </is>
+      </c>
+      <c r="BF24" t="inlineStr">
+        <is>
+          <t>https://www.metmuseum.org/art/collection/search/23</t>
+        </is>
+      </c>
+      <c r="BG24" t="inlineStr"/>
+      <c r="BH24" t="inlineStr"/>
+      <c r="BI24" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ24" t="inlineStr"/>
+      <c r="BK24" t="inlineStr"/>
+      <c r="BL24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="BM24" t="inlineStr">
+        <is>
+          <t>Object diameter</t>
+        </is>
+      </c>
+      <c r="BN24" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BO24" t="inlineStr"/>
+      <c r="BP24" t="inlineStr"/>
+      <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
+      <c r="BS24" t="inlineStr"/>
+      <c r="BT24" t="inlineStr"/>
+      <c r="BU24" t="inlineStr"/>
+      <c r="BV24" t="inlineStr"/>
+      <c r="BW24" t="inlineStr"/>
+      <c r="BX24" t="inlineStr"/>
+      <c r="BY24" t="inlineStr"/>
+      <c r="BZ24" t="inlineStr"/>
+      <c r="CA24" t="inlineStr"/>
+      <c r="CB24" t="inlineStr"/>
+      <c r="CC24" t="inlineStr"/>
+      <c r="CD24" t="inlineStr"/>
+      <c r="CE24" t="inlineStr"/>
+      <c r="CF24" t="inlineStr"/>
+      <c r="CG24" t="inlineStr"/>
+      <c r="CH24" t="inlineStr"/>
+      <c r="CI24" t="inlineStr"/>
+      <c r="CJ24" t="inlineStr"/>
+      <c r="CK24" t="inlineStr"/>
+      <c r="CL24" t="inlineStr"/>
+      <c r="CM24" t="inlineStr"/>
+      <c r="CN24" t="inlineStr"/>
+      <c r="CO24" t="inlineStr"/>
+      <c r="CP24" t="inlineStr"/>
+      <c r="CQ24" t="inlineStr"/>
+      <c r="CR24" t="inlineStr"/>
+      <c r="CS24" t="inlineStr"/>
+      <c r="CT24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>16.74.33</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1916</t>
+        </is>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>The American Wing</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Centavos</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Coin, 10 Centavos</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Mexican</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>1860–70</t>
+        </is>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1860</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1870</v>
+      </c>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>Nickel</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>Diam. 3/4 in. (1.9 cm)</t>
+        </is>
+      </c>
+      <c r="AN25" t="inlineStr"/>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Gift of Mrs. Russell Sage, 1916</t>
+        </is>
+      </c>
+      <c r="AP25" t="inlineStr">
+        <is>
+          <t>Made in</t>
+        </is>
+      </c>
+      <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="inlineStr"/>
+      <c r="AS25" t="inlineStr"/>
+      <c r="AT25" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="AU25" t="inlineStr"/>
+      <c r="AV25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr"/>
+      <c r="AX25" t="inlineStr"/>
+      <c r="AY25" t="inlineStr"/>
+      <c r="AZ25" t="inlineStr"/>
+      <c r="BA25" t="inlineStr"/>
+      <c r="BB25" t="inlineStr"/>
+      <c r="BC25" t="inlineStr"/>
+      <c r="BD25" t="inlineStr">
+        <is>
+          <t>2021-04-06T04:41:04.967Z</t>
+        </is>
+      </c>
+      <c r="BE25" t="inlineStr">
+        <is>
+          <t>Metropolitan Museum of Art, New York, NY</t>
+        </is>
+      </c>
+      <c r="BF25" t="inlineStr">
+        <is>
+          <t>https://www.metmuseum.org/art/collection/search/24</t>
+        </is>
+      </c>
+      <c r="BG25" t="inlineStr"/>
+      <c r="BH25" t="inlineStr"/>
+      <c r="BI25" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ25" t="inlineStr"/>
+      <c r="BK25" t="inlineStr"/>
+      <c r="BL25" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="BM25" t="inlineStr">
+        <is>
+          <t>Object diameter</t>
+        </is>
+      </c>
+      <c r="BN25" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="BO25" t="inlineStr"/>
+      <c r="BP25" t="inlineStr"/>
+      <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
+      <c r="BS25" t="inlineStr"/>
+      <c r="BT25" t="inlineStr"/>
+      <c r="BU25" t="inlineStr"/>
+      <c r="BV25" t="inlineStr"/>
+      <c r="BW25" t="inlineStr"/>
+      <c r="BX25" t="inlineStr"/>
+      <c r="BY25" t="inlineStr"/>
+      <c r="BZ25" t="inlineStr"/>
+      <c r="CA25" t="inlineStr"/>
+      <c r="CB25" t="inlineStr"/>
+      <c r="CC25" t="inlineStr"/>
+      <c r="CD25" t="inlineStr"/>
+      <c r="CE25" t="inlineStr"/>
+      <c r="CF25" t="inlineStr"/>
+      <c r="CG25" t="inlineStr"/>
+      <c r="CH25" t="inlineStr"/>
+      <c r="CI25" t="inlineStr"/>
+      <c r="CJ25" t="inlineStr"/>
+      <c r="CK25" t="inlineStr"/>
+      <c r="CL25" t="inlineStr"/>
+      <c r="CM25" t="inlineStr"/>
+      <c r="CN25" t="inlineStr"/>
+      <c r="CO25" t="inlineStr"/>
+      <c r="CP25" t="inlineStr"/>
+      <c r="CQ25" t="inlineStr"/>
+      <c r="CR25" t="inlineStr"/>
+      <c r="CS25" t="inlineStr"/>
+      <c r="CT25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>16.74.34</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1916</t>
+        </is>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>The American Wing</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Centavos</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Coin, 10 Centavos</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Mexican</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>1860–70</t>
+        </is>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1860</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1870</v>
+      </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>Nickel</t>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>Diam. 3/4 in. (1.9 cm)</t>
+        </is>
+      </c>
+      <c r="AN26" t="inlineStr"/>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>Gift of Mrs. Russell Sage, 1916</t>
+        </is>
+      </c>
+      <c r="AP26" t="inlineStr">
+        <is>
+          <t>Made in</t>
+        </is>
+      </c>
+      <c r="AQ26" t="inlineStr"/>
+      <c r="AR26" t="inlineStr"/>
+      <c r="AS26" t="inlineStr"/>
+      <c r="AT26" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="AU26" t="inlineStr"/>
+      <c r="AV26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr"/>
+      <c r="AX26" t="inlineStr"/>
+      <c r="AY26" t="inlineStr"/>
+      <c r="AZ26" t="inlineStr"/>
+      <c r="BA26" t="inlineStr"/>
+      <c r="BB26" t="inlineStr"/>
+      <c r="BC26" t="inlineStr"/>
+      <c r="BD26" t="inlineStr">
+        <is>
+          <t>2021-04-06T04:41:04.967Z</t>
+        </is>
+      </c>
+      <c r="BE26" t="inlineStr">
+        <is>
+          <t>Metropolitan Museum of Art, New York, NY</t>
+        </is>
+      </c>
+      <c r="BF26" t="inlineStr">
+        <is>
+          <t>https://www.metmuseum.org/art/collection/search/25</t>
+        </is>
+      </c>
+      <c r="BG26" t="inlineStr"/>
+      <c r="BH26" t="inlineStr"/>
+      <c r="BI26" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ26" t="inlineStr"/>
+      <c r="BK26" t="inlineStr"/>
+      <c r="BL26" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="BM26" t="inlineStr">
+        <is>
+          <t>Object diameter</t>
+        </is>
+      </c>
+      <c r="BN26" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="BO26" t="inlineStr"/>
+      <c r="BP26" t="inlineStr"/>
+      <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
+      <c r="BS26" t="inlineStr"/>
+      <c r="BT26" t="inlineStr"/>
+      <c r="BU26" t="inlineStr"/>
+      <c r="BV26" t="inlineStr"/>
+      <c r="BW26" t="inlineStr"/>
+      <c r="BX26" t="inlineStr"/>
+      <c r="BY26" t="inlineStr"/>
+      <c r="BZ26" t="inlineStr"/>
+      <c r="CA26" t="inlineStr"/>
+      <c r="CB26" t="inlineStr"/>
+      <c r="CC26" t="inlineStr"/>
+      <c r="CD26" t="inlineStr"/>
+      <c r="CE26" t="inlineStr"/>
+      <c r="CF26" t="inlineStr"/>
+      <c r="CG26" t="inlineStr"/>
+      <c r="CH26" t="inlineStr"/>
+      <c r="CI26" t="inlineStr"/>
+      <c r="CJ26" t="inlineStr"/>
+      <c r="CK26" t="inlineStr"/>
+      <c r="CL26" t="inlineStr"/>
+      <c r="CM26" t="inlineStr"/>
+      <c r="CN26" t="inlineStr"/>
+      <c r="CO26" t="inlineStr"/>
+      <c r="CP26" t="inlineStr"/>
+      <c r="CQ26" t="inlineStr"/>
+      <c r="CR26" t="inlineStr"/>
+      <c r="CS26" t="inlineStr"/>
+      <c r="CT26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>16.74.35</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1916</t>
+        </is>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>The American Wing</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Centavos</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Coin, 10 Centavos</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Mexican</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>1860–70</t>
+        </is>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1860</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1870</v>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>Nickel</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>Diam. 3/4 in. (1.9 cm)</t>
+        </is>
+      </c>
+      <c r="AN27" t="inlineStr"/>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>Gift of Mrs. Russell Sage, 1916</t>
+        </is>
+      </c>
+      <c r="AP27" t="inlineStr">
+        <is>
+          <t>Made in</t>
+        </is>
+      </c>
+      <c r="AQ27" t="inlineStr"/>
+      <c r="AR27" t="inlineStr"/>
+      <c r="AS27" t="inlineStr"/>
+      <c r="AT27" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="AU27" t="inlineStr"/>
+      <c r="AV27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr"/>
+      <c r="AX27" t="inlineStr"/>
+      <c r="AY27" t="inlineStr"/>
+      <c r="AZ27" t="inlineStr"/>
+      <c r="BA27" t="inlineStr"/>
+      <c r="BB27" t="inlineStr"/>
+      <c r="BC27" t="inlineStr"/>
+      <c r="BD27" t="inlineStr">
+        <is>
+          <t>2021-04-06T04:41:04.967Z</t>
+        </is>
+      </c>
+      <c r="BE27" t="inlineStr">
+        <is>
+          <t>Metropolitan Museum of Art, New York, NY</t>
+        </is>
+      </c>
+      <c r="BF27" t="inlineStr">
+        <is>
+          <t>https://www.metmuseum.org/art/collection/search/26</t>
+        </is>
+      </c>
+      <c r="BG27" t="inlineStr"/>
+      <c r="BH27" t="inlineStr"/>
+      <c r="BI27" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ27" t="inlineStr"/>
+      <c r="BK27" t="inlineStr"/>
+      <c r="BL27" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="BM27" t="inlineStr">
+        <is>
+          <t>Object diameter</t>
+        </is>
+      </c>
+      <c r="BN27" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="BO27" t="inlineStr"/>
+      <c r="BP27" t="inlineStr"/>
+      <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
+      <c r="BS27" t="inlineStr"/>
+      <c r="BT27" t="inlineStr"/>
+      <c r="BU27" t="inlineStr"/>
+      <c r="BV27" t="inlineStr"/>
+      <c r="BW27" t="inlineStr"/>
+      <c r="BX27" t="inlineStr"/>
+      <c r="BY27" t="inlineStr"/>
+      <c r="BZ27" t="inlineStr"/>
+      <c r="CA27" t="inlineStr"/>
+      <c r="CB27" t="inlineStr"/>
+      <c r="CC27" t="inlineStr"/>
+      <c r="CD27" t="inlineStr"/>
+      <c r="CE27" t="inlineStr"/>
+      <c r="CF27" t="inlineStr"/>
+      <c r="CG27" t="inlineStr"/>
+      <c r="CH27" t="inlineStr"/>
+      <c r="CI27" t="inlineStr"/>
+      <c r="CJ27" t="inlineStr"/>
+      <c r="CK27" t="inlineStr"/>
+      <c r="CL27" t="inlineStr"/>
+      <c r="CM27" t="inlineStr"/>
+      <c r="CN27" t="inlineStr"/>
+      <c r="CO27" t="inlineStr"/>
+      <c r="CP27" t="inlineStr"/>
+      <c r="CQ27" t="inlineStr"/>
+      <c r="CR27" t="inlineStr"/>
+      <c r="CS27" t="inlineStr"/>
+      <c r="CT27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>16.74.36</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1916</t>
+        </is>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>The American Wing</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Centavos</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Coin, 10 Centavos</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Mexican</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>1860–70</t>
+        </is>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1860</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1870</v>
+      </c>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>Nickel</t>
+        </is>
+      </c>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t>Diam. 3/4 in. (1.9 cm)</t>
+        </is>
+      </c>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>Gift of Mrs. Russell Sage, 1916</t>
+        </is>
+      </c>
+      <c r="AP28" t="inlineStr">
+        <is>
+          <t>Made in</t>
+        </is>
+      </c>
+      <c r="AQ28" t="inlineStr"/>
+      <c r="AR28" t="inlineStr"/>
+      <c r="AS28" t="inlineStr"/>
+      <c r="AT28" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="AU28" t="inlineStr"/>
+      <c r="AV28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr"/>
+      <c r="AX28" t="inlineStr"/>
+      <c r="AY28" t="inlineStr"/>
+      <c r="AZ28" t="inlineStr"/>
+      <c r="BA28" t="inlineStr"/>
+      <c r="BB28" t="inlineStr"/>
+      <c r="BC28" t="inlineStr"/>
+      <c r="BD28" t="inlineStr">
+        <is>
+          <t>2021-04-06T04:41:04.967Z</t>
+        </is>
+      </c>
+      <c r="BE28" t="inlineStr">
+        <is>
+          <t>Metropolitan Museum of Art, New York, NY</t>
+        </is>
+      </c>
+      <c r="BF28" t="inlineStr">
+        <is>
+          <t>https://www.metmuseum.org/art/collection/search/27</t>
+        </is>
+      </c>
+      <c r="BG28" t="inlineStr"/>
+      <c r="BH28" t="inlineStr"/>
+      <c r="BI28" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ28" t="inlineStr"/>
+      <c r="BK28" t="inlineStr"/>
+      <c r="BL28" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="BM28" t="inlineStr">
+        <is>
+          <t>Object diameter</t>
+        </is>
+      </c>
+      <c r="BN28" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="BO28" t="inlineStr"/>
+      <c r="BP28" t="inlineStr"/>
+      <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
+      <c r="BS28" t="inlineStr"/>
+      <c r="BT28" t="inlineStr"/>
+      <c r="BU28" t="inlineStr"/>
+      <c r="BV28" t="inlineStr"/>
+      <c r="BW28" t="inlineStr"/>
+      <c r="BX28" t="inlineStr"/>
+      <c r="BY28" t="inlineStr"/>
+      <c r="BZ28" t="inlineStr"/>
+      <c r="CA28" t="inlineStr"/>
+      <c r="CB28" t="inlineStr"/>
+      <c r="CC28" t="inlineStr"/>
+      <c r="CD28" t="inlineStr"/>
+      <c r="CE28" t="inlineStr"/>
+      <c r="CF28" t="inlineStr"/>
+      <c r="CG28" t="inlineStr"/>
+      <c r="CH28" t="inlineStr"/>
+      <c r="CI28" t="inlineStr"/>
+      <c r="CJ28" t="inlineStr"/>
+      <c r="CK28" t="inlineStr"/>
+      <c r="CL28" t="inlineStr"/>
+      <c r="CM28" t="inlineStr"/>
+      <c r="CN28" t="inlineStr"/>
+      <c r="CO28" t="inlineStr"/>
+      <c r="CP28" t="inlineStr"/>
+      <c r="CQ28" t="inlineStr"/>
+      <c r="CR28" t="inlineStr"/>
+      <c r="CS28" t="inlineStr"/>
+      <c r="CT28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>16.74.38</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1916</t>
+        </is>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>The American Wing</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Centavos</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Coin, 10 Centavos</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Mexican</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>1860–70</t>
+        </is>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1860</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1870</v>
+      </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>Nickel</t>
+        </is>
+      </c>
+      <c r="AM29" t="inlineStr">
+        <is>
+          <t>Diam. 3/4 in. (1.9 cm)</t>
+        </is>
+      </c>
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>Gift of Mrs. Russell Sage, 1916</t>
+        </is>
+      </c>
+      <c r="AP29" t="inlineStr">
+        <is>
+          <t>Made in</t>
+        </is>
+      </c>
+      <c r="AQ29" t="inlineStr"/>
+      <c r="AR29" t="inlineStr"/>
+      <c r="AS29" t="inlineStr"/>
+      <c r="AT29" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="AU29" t="inlineStr"/>
+      <c r="AV29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr"/>
+      <c r="AX29" t="inlineStr"/>
+      <c r="AY29" t="inlineStr"/>
+      <c r="AZ29" t="inlineStr"/>
+      <c r="BA29" t="inlineStr"/>
+      <c r="BB29" t="inlineStr"/>
+      <c r="BC29" t="inlineStr"/>
+      <c r="BD29" t="inlineStr">
+        <is>
+          <t>2021-04-06T04:41:04.967Z</t>
+        </is>
+      </c>
+      <c r="BE29" t="inlineStr">
+        <is>
+          <t>Metropolitan Museum of Art, New York, NY</t>
+        </is>
+      </c>
+      <c r="BF29" t="inlineStr">
+        <is>
+          <t>https://www.metmuseum.org/art/collection/search/28</t>
+        </is>
+      </c>
+      <c r="BG29" t="inlineStr"/>
+      <c r="BH29" t="inlineStr"/>
+      <c r="BI29" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ29" t="inlineStr"/>
+      <c r="BK29" t="inlineStr"/>
+      <c r="BL29" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="BM29" t="inlineStr">
+        <is>
+          <t>Object diameter</t>
+        </is>
+      </c>
+      <c r="BN29" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="BO29" t="inlineStr"/>
+      <c r="BP29" t="inlineStr"/>
+      <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
+      <c r="BS29" t="inlineStr"/>
+      <c r="BT29" t="inlineStr"/>
+      <c r="BU29" t="inlineStr"/>
+      <c r="BV29" t="inlineStr"/>
+      <c r="BW29" t="inlineStr"/>
+      <c r="BX29" t="inlineStr"/>
+      <c r="BY29" t="inlineStr"/>
+      <c r="BZ29" t="inlineStr"/>
+      <c r="CA29" t="inlineStr"/>
+      <c r="CB29" t="inlineStr"/>
+      <c r="CC29" t="inlineStr"/>
+      <c r="CD29" t="inlineStr"/>
+      <c r="CE29" t="inlineStr"/>
+      <c r="CF29" t="inlineStr"/>
+      <c r="CG29" t="inlineStr"/>
+      <c r="CH29" t="inlineStr"/>
+      <c r="CI29" t="inlineStr"/>
+      <c r="CJ29" t="inlineStr"/>
+      <c r="CK29" t="inlineStr"/>
+      <c r="CL29" t="inlineStr"/>
+      <c r="CM29" t="inlineStr"/>
+      <c r="CN29" t="inlineStr"/>
+      <c r="CO29" t="inlineStr"/>
+      <c r="CP29" t="inlineStr"/>
+      <c r="CQ29" t="inlineStr"/>
+      <c r="CR29" t="inlineStr"/>
+      <c r="CS29" t="inlineStr"/>
+      <c r="CT29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>16.74.39</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1916</t>
+        </is>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>The American Wing</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Centavos</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Coin, 10 Centavos</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Mexican</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>1860–70</t>
+        </is>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1860</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>1870</v>
+      </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>Nickel</t>
+        </is>
+      </c>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>Diam. 3/4 in. (1.9 cm)</t>
+        </is>
+      </c>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>Gift of Mrs. Russell Sage, 1916</t>
+        </is>
+      </c>
+      <c r="AP30" t="inlineStr">
+        <is>
+          <t>Made in</t>
+        </is>
+      </c>
+      <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="inlineStr"/>
+      <c r="AS30" t="inlineStr"/>
+      <c r="AT30" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="AU30" t="inlineStr"/>
+      <c r="AV30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr"/>
+      <c r="AX30" t="inlineStr"/>
+      <c r="AY30" t="inlineStr"/>
+      <c r="AZ30" t="inlineStr"/>
+      <c r="BA30" t="inlineStr"/>
+      <c r="BB30" t="inlineStr"/>
+      <c r="BC30" t="inlineStr"/>
+      <c r="BD30" t="inlineStr">
+        <is>
+          <t>2021-04-06T04:41:04.967Z</t>
+        </is>
+      </c>
+      <c r="BE30" t="inlineStr">
+        <is>
+          <t>Metropolitan Museum of Art, New York, NY</t>
+        </is>
+      </c>
+      <c r="BF30" t="inlineStr">
+        <is>
+          <t>https://www.metmuseum.org/art/collection/search/29</t>
+        </is>
+      </c>
+      <c r="BG30" t="inlineStr"/>
+      <c r="BH30" t="inlineStr"/>
+      <c r="BI30" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ30" t="inlineStr"/>
+      <c r="BK30" t="inlineStr"/>
+      <c r="BL30" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="BM30" t="inlineStr">
+        <is>
+          <t>Object diameter</t>
+        </is>
+      </c>
+      <c r="BN30" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="BO30" t="inlineStr"/>
+      <c r="BP30" t="inlineStr"/>
+      <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
+      <c r="BS30" t="inlineStr"/>
+      <c r="BT30" t="inlineStr"/>
+      <c r="BU30" t="inlineStr"/>
+      <c r="BV30" t="inlineStr"/>
+      <c r="BW30" t="inlineStr"/>
+      <c r="BX30" t="inlineStr"/>
+      <c r="BY30" t="inlineStr"/>
+      <c r="BZ30" t="inlineStr"/>
+      <c r="CA30" t="inlineStr"/>
+      <c r="CB30" t="inlineStr"/>
+      <c r="CC30" t="inlineStr"/>
+      <c r="CD30" t="inlineStr"/>
+      <c r="CE30" t="inlineStr"/>
+      <c r="CF30" t="inlineStr"/>
+      <c r="CG30" t="inlineStr"/>
+      <c r="CH30" t="inlineStr"/>
+      <c r="CI30" t="inlineStr"/>
+      <c r="CJ30" t="inlineStr"/>
+      <c r="CK30" t="inlineStr"/>
+      <c r="CL30" t="inlineStr"/>
+      <c r="CM30" t="inlineStr"/>
+      <c r="CN30" t="inlineStr"/>
+      <c r="CO30" t="inlineStr"/>
+      <c r="CP30" t="inlineStr"/>
+      <c r="CQ30" t="inlineStr"/>
+      <c r="CR30" t="inlineStr"/>
+      <c r="CS30" t="inlineStr"/>
+      <c r="CT30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>16.74.37</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1916</t>
+        </is>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>The American Wing</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Centavos</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Coin, 10 Centavos</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Mexican</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>1885</t>
+        </is>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1885</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1885</v>
+      </c>
+      <c r="AL31" t="inlineStr">
+        <is>
+          <t>Nickel</t>
+        </is>
+      </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>Diam. 3/4 in. (1.9 cm)</t>
+        </is>
+      </c>
+      <c r="AN31" t="inlineStr"/>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>Gift of Mrs. Russell Sage, 1916</t>
+        </is>
+      </c>
+      <c r="AP31" t="inlineStr">
+        <is>
+          <t>Made in</t>
+        </is>
+      </c>
+      <c r="AQ31" t="inlineStr"/>
+      <c r="AR31" t="inlineStr"/>
+      <c r="AS31" t="inlineStr"/>
+      <c r="AT31" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="AU31" t="inlineStr"/>
+      <c r="AV31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr"/>
+      <c r="AX31" t="inlineStr"/>
+      <c r="AY31" t="inlineStr"/>
+      <c r="AZ31" t="inlineStr"/>
+      <c r="BA31" t="inlineStr"/>
+      <c r="BB31" t="inlineStr"/>
+      <c r="BC31" t="inlineStr"/>
+      <c r="BD31" t="inlineStr">
+        <is>
+          <t>2021-04-06T04:41:04.967Z</t>
+        </is>
+      </c>
+      <c r="BE31" t="inlineStr">
+        <is>
+          <t>Metropolitan Museum of Art, New York, NY</t>
+        </is>
+      </c>
+      <c r="BF31" t="inlineStr">
+        <is>
+          <t>https://www.metmuseum.org/art/collection/search/30</t>
+        </is>
+      </c>
+      <c r="BG31" t="inlineStr"/>
+      <c r="BH31" t="inlineStr"/>
+      <c r="BI31" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ31" t="inlineStr"/>
+      <c r="BK31" t="inlineStr"/>
+      <c r="BL31" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="BM31" t="inlineStr">
+        <is>
+          <t>Object diameter</t>
+        </is>
+      </c>
+      <c r="BN31" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="BO31" t="inlineStr"/>
+      <c r="BP31" t="inlineStr"/>
+      <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
+      <c r="BS31" t="inlineStr"/>
+      <c r="BT31" t="inlineStr"/>
+      <c r="BU31" t="inlineStr"/>
+      <c r="BV31" t="inlineStr"/>
+      <c r="BW31" t="inlineStr"/>
+      <c r="BX31" t="inlineStr"/>
+      <c r="BY31" t="inlineStr"/>
+      <c r="BZ31" t="inlineStr"/>
+      <c r="CA31" t="inlineStr"/>
+      <c r="CB31" t="inlineStr"/>
+      <c r="CC31" t="inlineStr"/>
+      <c r="CD31" t="inlineStr"/>
+      <c r="CE31" t="inlineStr"/>
+      <c r="CF31" t="inlineStr"/>
+      <c r="CG31" t="inlineStr"/>
+      <c r="CH31" t="inlineStr"/>
+      <c r="CI31" t="inlineStr"/>
+      <c r="CJ31" t="inlineStr"/>
+      <c r="CK31" t="inlineStr"/>
+      <c r="CL31" t="inlineStr"/>
+      <c r="CM31" t="inlineStr"/>
+      <c r="CN31" t="inlineStr"/>
+      <c r="CO31" t="inlineStr"/>
+      <c r="CP31" t="inlineStr"/>
+      <c r="CQ31" t="inlineStr"/>
+      <c r="CR31" t="inlineStr"/>
+      <c r="CS31" t="inlineStr"/>
+      <c r="CT31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>16.74.40</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1916</t>
+        </is>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>The American Wing</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Centavos</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Coin, 10 Centavos</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Mexican</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>1885</t>
+        </is>
+      </c>
+      <c r="AJ32" t="n">
+        <v>1885</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>1885</v>
+      </c>
+      <c r="AL32" t="inlineStr">
+        <is>
+          <t>Nickel</t>
+        </is>
+      </c>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>Diam. 3/4 in. (1.9 cm)</t>
+        </is>
+      </c>
+      <c r="AN32" t="inlineStr"/>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>Gift of Mrs. Russell Sage, 1916</t>
+        </is>
+      </c>
+      <c r="AP32" t="inlineStr">
+        <is>
+          <t>Made in</t>
+        </is>
+      </c>
+      <c r="AQ32" t="inlineStr"/>
+      <c r="AR32" t="inlineStr"/>
+      <c r="AS32" t="inlineStr"/>
+      <c r="AT32" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="AU32" t="inlineStr"/>
+      <c r="AV32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr"/>
+      <c r="AX32" t="inlineStr"/>
+      <c r="AY32" t="inlineStr"/>
+      <c r="AZ32" t="inlineStr"/>
+      <c r="BA32" t="inlineStr"/>
+      <c r="BB32" t="inlineStr"/>
+      <c r="BC32" t="inlineStr"/>
+      <c r="BD32" t="inlineStr">
+        <is>
+          <t>2021-04-06T04:41:04.967Z</t>
+        </is>
+      </c>
+      <c r="BE32" t="inlineStr">
+        <is>
+          <t>Metropolitan Museum of Art, New York, NY</t>
+        </is>
+      </c>
+      <c r="BF32" t="inlineStr">
+        <is>
+          <t>https://www.metmuseum.org/art/collection/search/31</t>
+        </is>
+      </c>
+      <c r="BG32" t="inlineStr"/>
+      <c r="BH32" t="inlineStr"/>
+      <c r="BI32" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ32" t="inlineStr"/>
+      <c r="BK32" t="inlineStr"/>
+      <c r="BL32" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="BM32" t="inlineStr">
+        <is>
+          <t>Object diameter</t>
+        </is>
+      </c>
+      <c r="BN32" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="BO32" t="inlineStr"/>
+      <c r="BP32" t="inlineStr"/>
+      <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
+      <c r="BS32" t="inlineStr"/>
+      <c r="BT32" t="inlineStr"/>
+      <c r="BU32" t="inlineStr"/>
+      <c r="BV32" t="inlineStr"/>
+      <c r="BW32" t="inlineStr"/>
+      <c r="BX32" t="inlineStr"/>
+      <c r="BY32" t="inlineStr"/>
+      <c r="BZ32" t="inlineStr"/>
+      <c r="CA32" t="inlineStr"/>
+      <c r="CB32" t="inlineStr"/>
+      <c r="CC32" t="inlineStr"/>
+      <c r="CD32" t="inlineStr"/>
+      <c r="CE32" t="inlineStr"/>
+      <c r="CF32" t="inlineStr"/>
+      <c r="CG32" t="inlineStr"/>
+      <c r="CH32" t="inlineStr"/>
+      <c r="CI32" t="inlineStr"/>
+      <c r="CJ32" t="inlineStr"/>
+      <c r="CK32" t="inlineStr"/>
+      <c r="CL32" t="inlineStr"/>
+      <c r="CM32" t="inlineStr"/>
+      <c r="CN32" t="inlineStr"/>
+      <c r="CO32" t="inlineStr"/>
+      <c r="CP32" t="inlineStr"/>
+      <c r="CQ32" t="inlineStr"/>
+      <c r="CR32" t="inlineStr"/>
+      <c r="CS32" t="inlineStr"/>
+      <c r="CT32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>09.9.15</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1909</t>
+        </is>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>The American Wing</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Pesos</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>Coin, 20 Pesos</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Mexican</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>1866</t>
+        </is>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1866</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>1866</v>
+      </c>
+      <c r="AL33" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="AM33" t="inlineStr">
+        <is>
+          <t>Diam. 2 1/8 in. (5.4 cm)</t>
+        </is>
+      </c>
+      <c r="AN33" t="inlineStr"/>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>Gift of H. R. Ickelheimer, 1909</t>
+        </is>
+      </c>
+      <c r="AP33" t="inlineStr">
+        <is>
+          <t>Made in</t>
+        </is>
+      </c>
+      <c r="AQ33" t="inlineStr"/>
+      <c r="AR33" t="inlineStr"/>
+      <c r="AS33" t="inlineStr"/>
+      <c r="AT33" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="AU33" t="inlineStr"/>
+      <c r="AV33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr"/>
+      <c r="AX33" t="inlineStr"/>
+      <c r="AY33" t="inlineStr"/>
+      <c r="AZ33" t="inlineStr"/>
+      <c r="BA33" t="inlineStr"/>
+      <c r="BB33" t="inlineStr"/>
+      <c r="BC33" t="inlineStr"/>
+      <c r="BD33" t="inlineStr">
+        <is>
+          <t>2021-04-06T04:41:04.967Z</t>
+        </is>
+      </c>
+      <c r="BE33" t="inlineStr">
+        <is>
+          <t>Metropolitan Museum of Art, New York, NY</t>
+        </is>
+      </c>
+      <c r="BF33" t="inlineStr">
+        <is>
+          <t>https://www.metmuseum.org/art/collection/search/32</t>
+        </is>
+      </c>
+      <c r="BG33" t="inlineStr"/>
+      <c r="BH33" t="inlineStr"/>
+      <c r="BI33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ33" t="inlineStr"/>
+      <c r="BK33" t="inlineStr"/>
+      <c r="BL33" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="BM33" t="inlineStr">
+        <is>
+          <t>Object diameter</t>
+        </is>
+      </c>
+      <c r="BN33" t="n">
+        <v>5.3975</v>
+      </c>
+      <c r="BO33" t="inlineStr"/>
+      <c r="BP33" t="inlineStr"/>
+      <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
+      <c r="BS33" t="inlineStr"/>
+      <c r="BT33" t="inlineStr"/>
+      <c r="BU33" t="inlineStr"/>
+      <c r="BV33" t="inlineStr"/>
+      <c r="BW33" t="inlineStr"/>
+      <c r="BX33" t="inlineStr"/>
+      <c r="BY33" t="inlineStr"/>
+      <c r="BZ33" t="inlineStr"/>
+      <c r="CA33" t="inlineStr"/>
+      <c r="CB33" t="inlineStr"/>
+      <c r="CC33" t="inlineStr"/>
+      <c r="CD33" t="inlineStr"/>
+      <c r="CE33" t="inlineStr"/>
+      <c r="CF33" t="inlineStr"/>
+      <c r="CG33" t="inlineStr"/>
+      <c r="CH33" t="inlineStr"/>
+      <c r="CI33" t="inlineStr"/>
+      <c r="CJ33" t="inlineStr"/>
+      <c r="CK33" t="inlineStr"/>
+      <c r="CL33" t="inlineStr"/>
+      <c r="CM33" t="inlineStr"/>
+      <c r="CN33" t="inlineStr"/>
+      <c r="CO33" t="inlineStr"/>
+      <c r="CP33" t="inlineStr"/>
+      <c r="CQ33" t="inlineStr"/>
+      <c r="CR33" t="inlineStr"/>
+      <c r="CS33" t="inlineStr"/>
+      <c r="CT33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>64.62</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>164590</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Maker</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>James Gillinder and Sons</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>http://vocab.getty.edu/page/ulan/500524407</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>https://www.wikidata.org/wiki/Q99264077</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>The American Wing</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Bust</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Bust of Abraham Lincoln</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>American</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Maker</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>James Gillinder and Sons</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>American, 1861–ca. 1930</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Gillinder and Sons, James</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>American</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>1861</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr">
+        <is>
+          <t>https://www.wikidata.org/wiki/Q99264077</t>
+        </is>
+      </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>http://vocab.getty.edu/page/ulan/500524407</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>1876</t>
+        </is>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1876</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>1876</v>
+      </c>
+      <c r="AL34" t="inlineStr">
+        <is>
+          <t>Pressed glass</t>
+        </is>
+      </c>
+      <c r="AM34" t="inlineStr">
+        <is>
+          <t>2 3/4 x 3 1/2 x 2 3/4 in. (7 x 8.9 x 7 cm)</t>
+        </is>
+      </c>
+      <c r="AN34" t="inlineStr"/>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>Gift of Teunis G. B. Cortelyou, 1964</t>
+        </is>
+      </c>
+      <c r="AP34" t="inlineStr">
+        <is>
+          <t>Made in</t>
+        </is>
+      </c>
+      <c r="AQ34" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="AR34" t="inlineStr">
+        <is>
+          <t>Pennsylvania</t>
+        </is>
+      </c>
+      <c r="AS34" t="inlineStr"/>
+      <c r="AT34" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="AU34" t="inlineStr">
+        <is>
+          <t>Mid-Atlantic</t>
+        </is>
+      </c>
+      <c r="AV34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr"/>
+      <c r="AX34" t="inlineStr"/>
+      <c r="AY34" t="inlineStr"/>
+      <c r="AZ34" t="inlineStr"/>
+      <c r="BA34" t="inlineStr"/>
+      <c r="BB34" t="inlineStr"/>
+      <c r="BC34" t="inlineStr"/>
+      <c r="BD34" t="inlineStr">
+        <is>
+          <t>2022-02-09T04:42:08.947Z</t>
+        </is>
+      </c>
+      <c r="BE34" t="inlineStr">
+        <is>
+          <t>Metropolitan Museum of Art, New York, NY</t>
+        </is>
+      </c>
+      <c r="BF34" t="inlineStr">
+        <is>
+          <t>https://www.metmuseum.org/art/collection/search/33</t>
+        </is>
+      </c>
+      <c r="BG34" t="inlineStr"/>
+      <c r="BH34" t="inlineStr"/>
+      <c r="BI34" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ34" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="BK34" t="inlineStr"/>
+      <c r="BL34" t="inlineStr">
+        <is>
+          <t>Overall</t>
+        </is>
+      </c>
+      <c r="BM34" t="inlineStr"/>
+      <c r="BN34" t="inlineStr"/>
+      <c r="BO34" t="inlineStr">
+        <is>
+          <t>Abraham Lincoln</t>
+        </is>
+      </c>
+      <c r="BP34" t="inlineStr">
+        <is>
+          <t>http://vocab.getty.edu/page/ulan/500344436</t>
+        </is>
+      </c>
+      <c r="BQ34" t="inlineStr">
+        <is>
+          <t>https://www.wikidata.org/wiki/Q91</t>
+        </is>
+      </c>
+      <c r="BR34" t="inlineStr">
+        <is>
+          <t>Portraits</t>
+        </is>
+      </c>
+      <c r="BS34" t="inlineStr">
+        <is>
+          <t>http://vocab.getty.edu/page/aat/300015637</t>
+        </is>
+      </c>
+      <c r="BT34" t="inlineStr">
+        <is>
+          <t>https://www.wikidata.org/wiki/Q134307</t>
+        </is>
+      </c>
+      <c r="BU34" t="inlineStr">
+        <is>
+          <t>Men</t>
+        </is>
+      </c>
+      <c r="BV34" t="inlineStr">
+        <is>
+          <t>http://vocab.getty.edu/page/aat/300025928</t>
+        </is>
+      </c>
+      <c r="BW34" t="inlineStr">
+        <is>
+          <t>https://www.wikidata.org/wiki/Q8441</t>
+        </is>
+      </c>
+      <c r="BX34" t="n">
+        <v>7</v>
+      </c>
+      <c r="BY34" t="n">
+        <v>7</v>
+      </c>
+      <c r="BZ34" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="CA34" t="inlineStr"/>
+      <c r="CB34" t="inlineStr"/>
+      <c r="CC34" t="inlineStr"/>
+      <c r="CD34" t="inlineStr"/>
+      <c r="CE34" t="inlineStr"/>
+      <c r="CF34" t="inlineStr"/>
+      <c r="CG34" t="inlineStr"/>
+      <c r="CH34" t="inlineStr"/>
+      <c r="CI34" t="inlineStr"/>
+      <c r="CJ34" t="inlineStr"/>
+      <c r="CK34" t="inlineStr"/>
+      <c r="CL34" t="inlineStr"/>
+      <c r="CM34" t="inlineStr"/>
+      <c r="CN34" t="inlineStr"/>
+      <c r="CO34" t="inlineStr"/>
+      <c r="CP34" t="inlineStr"/>
+      <c r="CQ34" t="inlineStr"/>
+      <c r="CR34" t="inlineStr"/>
+      <c r="CS34" t="inlineStr"/>
+      <c r="CT34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1970.289.6</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>https://images.metmuseum.org/CRDImages/ad/original/204788.jpg</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://images.metmuseum.org/CRDImages/ad/web-large/204788.jpg</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>1082</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Maker</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Forestville Manufacturing Company</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>The American Wing</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Clock</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>Acorn Clock</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>American</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Maker</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>Forestville Manufacturing Company</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>1835–1853</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Forestville Manufacturing Company</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>1835</t>
+        </is>
+      </c>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>1853</t>
+        </is>
+      </c>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr"/>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>1847–50</t>
+        </is>
+      </c>
+      <c r="AJ35" t="n">
+        <v>1847</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>1850</v>
+      </c>
+      <c r="AL35" t="inlineStr">
+        <is>
+          <t>Mahogany, laminated</t>
+        </is>
+      </c>
+      <c r="AM35" t="inlineStr">
+        <is>
+          <t>24 3/8 x 14 5/8 x 5 1/8 in. (61.9 x 37.1 x 13 cm)</t>
+        </is>
+      </c>
+      <c r="AN35" t="inlineStr"/>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>Gift of Mrs. Paul Moore, 1970</t>
+        </is>
+      </c>
+      <c r="AP35" t="inlineStr">
+        <is>
+          <t>Made in</t>
+        </is>
+      </c>
+      <c r="AQ35" t="inlineStr">
+        <is>
+          <t>Bristol</t>
+        </is>
+      </c>
+      <c r="AR35" t="inlineStr">
+        <is>
+          <t>Connecticut</t>
+        </is>
+      </c>
+      <c r="AS35" t="inlineStr"/>
+      <c r="AT35" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="AU35" t="inlineStr">
+        <is>
+          <t>New England</t>
+        </is>
+      </c>
+      <c r="AV35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr"/>
+      <c r="AX35" t="inlineStr"/>
+      <c r="AY35" t="inlineStr"/>
+      <c r="AZ35" t="inlineStr"/>
+      <c r="BA35" t="inlineStr"/>
+      <c r="BB35" t="inlineStr"/>
+      <c r="BC35" t="inlineStr"/>
+      <c r="BD35" t="inlineStr">
+        <is>
+          <t>2021-06-30T04:39:57.037Z</t>
+        </is>
+      </c>
+      <c r="BE35" t="inlineStr">
+        <is>
+          <t>Metropolitan Museum of Art, New York, NY</t>
+        </is>
+      </c>
+      <c r="BF35" t="inlineStr">
+        <is>
+          <t>https://www.metmuseum.org/art/collection/search/34</t>
+        </is>
+      </c>
+      <c r="BG35" t="inlineStr"/>
+      <c r="BH35" t="inlineStr"/>
+      <c r="BI35" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ35" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="BK35" t="inlineStr"/>
+      <c r="BL35" t="inlineStr">
+        <is>
+          <t>Overall</t>
+        </is>
+      </c>
+      <c r="BM35" t="inlineStr"/>
+      <c r="BN35" t="inlineStr"/>
+      <c r="BO35" t="inlineStr">
+        <is>
+          <t>Boats</t>
+        </is>
+      </c>
+      <c r="BP35" t="inlineStr">
+        <is>
+          <t>http://vocab.getty.edu/page/aat/300178749</t>
+        </is>
+      </c>
+      <c r="BQ35" t="inlineStr">
+        <is>
+          <t>https://www.wikidata.org/wiki/Q35872</t>
+        </is>
+      </c>
+      <c r="BR35" t="inlineStr">
+        <is>
+          <t>Landscapes</t>
+        </is>
+      </c>
+      <c r="BS35" t="inlineStr">
+        <is>
+          <t>http://vocab.getty.edu/page/aat/300132294</t>
+        </is>
+      </c>
+      <c r="BT35" t="inlineStr">
+        <is>
+          <t>https://www.wikidata.org/wiki/Q191163</t>
+        </is>
+      </c>
+      <c r="BU35" t="inlineStr"/>
+      <c r="BV35" t="inlineStr"/>
+      <c r="BW35" t="inlineStr"/>
+      <c r="BX35" t="n">
+        <v>13.0175</v>
+      </c>
+      <c r="BY35" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="BZ35" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="CA35" t="inlineStr"/>
+      <c r="CB35" t="inlineStr"/>
+      <c r="CC35" t="inlineStr"/>
+      <c r="CD35" t="inlineStr"/>
+      <c r="CE35" t="inlineStr"/>
+      <c r="CF35" t="inlineStr"/>
+      <c r="CG35" t="inlineStr"/>
+      <c r="CH35" t="inlineStr"/>
+      <c r="CI35" t="inlineStr"/>
+      <c r="CJ35" t="inlineStr"/>
+      <c r="CK35" t="inlineStr"/>
+      <c r="CL35" t="inlineStr"/>
+      <c r="CM35" t="inlineStr"/>
+      <c r="CN35" t="inlineStr"/>
+      <c r="CO35" t="inlineStr"/>
+      <c r="CP35" t="inlineStr"/>
+      <c r="CQ35" t="inlineStr"/>
+      <c r="CR35" t="inlineStr"/>
+      <c r="CS35" t="inlineStr"/>
+      <c r="CT35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>04.1a–c</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1904</t>
+        </is>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>1083</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Designer</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Designed by Paulding Farnham</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>http://vocab.getty.edu/page/ulan/500336597</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>https://www.wikidata.org/wiki/Q13476260</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>The American Wing</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Vase</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>The Adams Vase</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>American</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Designer</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Designed by</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>Paulding Farnham</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>1859–1927</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Farnham, Paulding</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>1859</t>
+        </is>
+      </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>1927</t>
+        </is>
+      </c>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="inlineStr">
+        <is>
+          <t>https://www.wikidata.org/wiki/Q13476260</t>
+        </is>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>http://vocab.getty.edu/page/ulan/500336597</t>
+        </is>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>1893–95</t>
+        </is>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1893</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>1895</v>
+      </c>
+      <c r="AL36" t="inlineStr">
+        <is>
+          <t>Gold, amethysts, spessartites, tourmalines, fresh water pearls, quartzes, rock crystal, and enamel</t>
+        </is>
+      </c>
+      <c r="AM36" t="inlineStr">
+        <is>
+          <t>Overall: 19 7/16 x 13 x 9 1/4 in. (49.4 x 33 x 23.5 cm); 352 oz. 18 dwt. (10977 g)
+Body: H. 18 7/8 in. (47.9 cm)
+Cover: 4 1/4 x 4 13/16 in. (10.8 x 12.2 cm); 19 oz. 6 dwt. (600.1 g)</t>
+        </is>
+      </c>
+      <c r="AN36" t="inlineStr"/>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>Gift of Edward D. Adams, 1904</t>
+        </is>
+      </c>
+      <c r="AP36" t="inlineStr">
+        <is>
+          <t>Made in</t>
+        </is>
+      </c>
+      <c r="AQ36" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="AR36" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="AS36" t="inlineStr"/>
+      <c r="AT36" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="AU36" t="inlineStr">
+        <is>
+          <t>Mid-Atlantic</t>
+        </is>
+      </c>
+      <c r="AV36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr"/>
+      <c r="AX36" t="inlineStr"/>
+      <c r="AY36" t="inlineStr"/>
+      <c r="AZ36" t="inlineStr"/>
+      <c r="BA36" t="inlineStr"/>
+      <c r="BB36" t="inlineStr"/>
+      <c r="BC36" t="inlineStr"/>
+      <c r="BD36" t="inlineStr">
+        <is>
+          <t>2021-04-06T04:41:04.967Z</t>
+        </is>
+      </c>
+      <c r="BE36" t="inlineStr">
+        <is>
+          <t>Metropolitan Museum of Art, New York, NY</t>
+        </is>
+      </c>
+      <c r="BF36" t="inlineStr">
+        <is>
+          <t>https://www.metmuseum.org/art/collection/search/35</t>
+        </is>
+      </c>
+      <c r="BG36" t="inlineStr"/>
+      <c r="BH36" t="inlineStr">
+        <is>
+          <t>https://www.wikidata.org/wiki/Q83545838</t>
+        </is>
+      </c>
+      <c r="BI36" t="b">
+        <v>1</v>
+      </c>
+      <c r="BJ36" t="inlineStr">
+        <is>
+          <t>706</t>
+        </is>
+      </c>
+      <c r="BK36" t="inlineStr"/>
+      <c r="BL36" t="inlineStr">
+        <is>
+          <t>Overall</t>
+        </is>
+      </c>
+      <c r="BM36" t="inlineStr"/>
+      <c r="BN36" t="inlineStr"/>
+      <c r="BO36" t="inlineStr">
+        <is>
+          <t>Birds</t>
+        </is>
+      </c>
+      <c r="BP36" t="inlineStr">
+        <is>
+          <t>http://vocab.getty.edu/page/aat/300266506</t>
+        </is>
+      </c>
+      <c r="BQ36" t="inlineStr">
+        <is>
+          <t>https://www.wikidata.org/wiki/Q5113</t>
+        </is>
+      </c>
+      <c r="BR36" t="inlineStr">
+        <is>
+          <t>Men</t>
+        </is>
+      </c>
+      <c r="BS36" t="inlineStr">
+        <is>
+          <t>http://vocab.getty.edu/page/aat/300025928</t>
+        </is>
+      </c>
+      <c r="BT36" t="inlineStr">
+        <is>
+          <t>https://www.wikidata.org/wiki/Q8441</t>
+        </is>
+      </c>
+      <c r="BU36" t="inlineStr">
+        <is>
+          <t>Animals</t>
+        </is>
+      </c>
+      <c r="BV36" t="inlineStr">
+        <is>
+          <t>http://vocab.getty.edu/page/aat/300249525</t>
+        </is>
+      </c>
+      <c r="BW36" t="inlineStr">
+        <is>
+          <t>https://www.wikidata.org/wiki/Q729</t>
+        </is>
+      </c>
+      <c r="BX36" t="n">
+        <v>23.495</v>
+      </c>
+      <c r="BY36" t="n">
+        <v>49.3713</v>
+      </c>
+      <c r="BZ36" t="n">
+        <v>33</v>
+      </c>
+      <c r="CA36" t="n">
+        <v>162539</v>
+      </c>
+      <c r="CB36" t="inlineStr">
+        <is>
+          <t>Manufacturer</t>
+        </is>
+      </c>
+      <c r="CC36" t="inlineStr">
+        <is>
+          <t>Manufactured by Tiffany &amp;amp; Co.</t>
+        </is>
+      </c>
+      <c r="CD36" t="inlineStr">
+        <is>
+          <t>http://vocab.getty.edu/page/ulan/500330306</t>
+        </is>
+      </c>
+      <c r="CE36" t="inlineStr">
+        <is>
+          <t>https://www.wikidata.org/wiki/Q1066858</t>
+        </is>
+      </c>
+      <c r="CF36" t="inlineStr"/>
+      <c r="CG36" t="n">
+        <v>10.977</v>
+      </c>
+      <c r="CH36" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="CI36" t="inlineStr">
+        <is>
+          <t>Cover</t>
+        </is>
+      </c>
+      <c r="CJ36" t="n">
+        <v>12.2238</v>
+      </c>
+      <c r="CK36" t="n">
+        <v>10.795</v>
+      </c>
+      <c r="CL36" t="n">
+        <v>0.6001</v>
+      </c>
+      <c r="CM36" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="CN36" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="CO36" t="n">
+        <v>47.9426</v>
+      </c>
+      <c r="CP36" t="inlineStr">
+        <is>
+          <t>Garlands</t>
+        </is>
+      </c>
+      <c r="CQ36" t="inlineStr">
+        <is>
+          <t>http://vocab.getty.edu/page/aat/300167386</t>
+        </is>
+      </c>
+      <c r="CR36" t="inlineStr">
+        <is>
+          <t>https://www.wikidata.org/wiki/Q756600</t>
+        </is>
+      </c>
+      <c r="CS36" t="inlineStr"/>
+      <c r="CT36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1976.319</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>1085</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Maker</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Conrad Henninger</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>The American Wing</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Side Chair</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Side Chair</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>American</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Maker</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>Conrad Henninger</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>active ca. 1888–1932</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Henninger, Conrad</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>1885</t>
+        </is>
+      </c>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>ca. 1887</t>
+        </is>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1884</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>1887</v>
+      </c>
+      <c r="AL37" t="inlineStr">
+        <is>
+          <t>Oak, tulip poplar</t>
+        </is>
+      </c>
+      <c r="AM37" t="inlineStr">
+        <is>
+          <t>40 x 25 1/2 x 34 1/2 in. (101.6 x 64.8 x 87.6 cm)</t>
+        </is>
+      </c>
+      <c r="AN37" t="inlineStr"/>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>Gift of Charlotte Pickman-Gertz, 1976</t>
+        </is>
+      </c>
+      <c r="AP37" t="inlineStr">
+        <is>
+          <t>Made in</t>
+        </is>
+      </c>
+      <c r="AQ37" t="inlineStr">
+        <is>
+          <t>Lebanon</t>
+        </is>
+      </c>
+      <c r="AR37" t="inlineStr">
+        <is>
+          <t>Pennsylvania</t>
+        </is>
+      </c>
+      <c r="AS37" t="inlineStr"/>
+      <c r="AT37" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="AU37" t="inlineStr">
+        <is>
+          <t>Mid-Atlantic</t>
+        </is>
+      </c>
+      <c r="AV37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr"/>
+      <c r="AX37" t="inlineStr"/>
+      <c r="AY37" t="inlineStr"/>
+      <c r="AZ37" t="inlineStr"/>
+      <c r="BA37" t="inlineStr"/>
+      <c r="BB37" t="inlineStr"/>
+      <c r="BC37" t="inlineStr"/>
+      <c r="BD37" t="inlineStr">
+        <is>
+          <t>2021-04-06T04:41:04.967Z</t>
+        </is>
+      </c>
+      <c r="BE37" t="inlineStr">
+        <is>
+          <t>Metropolitan Museum of Art, New York, NY</t>
+        </is>
+      </c>
+      <c r="BF37" t="inlineStr">
+        <is>
+          <t>https://www.metmuseum.org/art/collection/search/36</t>
+        </is>
+      </c>
+      <c r="BG37" t="inlineStr"/>
+      <c r="BH37" t="inlineStr"/>
+      <c r="BI37" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ37" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="BK37" t="inlineStr"/>
+      <c r="BL37" t="inlineStr">
+        <is>
+          <t>Overall</t>
+        </is>
+      </c>
+      <c r="BM37" t="inlineStr"/>
+      <c r="BN37" t="inlineStr"/>
+      <c r="BO37" t="inlineStr"/>
+      <c r="BP37" t="inlineStr"/>
+      <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
+      <c r="BS37" t="inlineStr"/>
+      <c r="BT37" t="inlineStr"/>
+      <c r="BU37" t="inlineStr"/>
+      <c r="BV37" t="inlineStr"/>
+      <c r="BW37" t="inlineStr"/>
+      <c r="BX37" t="n">
+        <v>87.6302</v>
+      </c>
+      <c r="BY37" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="BZ37" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="CA37" t="inlineStr"/>
+      <c r="CB37" t="inlineStr"/>
+      <c r="CC37" t="inlineStr"/>
+      <c r="CD37" t="inlineStr"/>
+      <c r="CE37" t="inlineStr"/>
+      <c r="CF37" t="inlineStr"/>
+      <c r="CG37" t="inlineStr"/>
+      <c r="CH37" t="inlineStr"/>
+      <c r="CI37" t="inlineStr"/>
+      <c r="CJ37" t="inlineStr"/>
+      <c r="CK37" t="inlineStr"/>
+      <c r="CL37" t="inlineStr"/>
+      <c r="CM37" t="inlineStr"/>
+      <c r="CN37" t="inlineStr"/>
+      <c r="CO37" t="inlineStr"/>
+      <c r="CP37" t="inlineStr"/>
+      <c r="CQ37" t="inlineStr"/>
+      <c r="CR37" t="inlineStr"/>
+      <c r="CS37" t="inlineStr"/>
+      <c r="CT37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>38.165.51</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1938</t>
+        </is>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>https://images.metmuseum.org/CRDImages/ad/original/DP247752.jpg</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://images.metmuseum.org/CRDImages/ad/web-large/DP247752.jpg</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>164285</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Maker</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Pierre Stephan</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>http://vocab.getty.edu/page/ulan/500100483</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>The American Wing</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Figure</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Figure of Admiral George Rodney</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>British (American market)</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Maker</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>Pierre Stephan</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>French, active ca. 1770–95</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Stephan, Pierre</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>1765</t>
+        </is>
+      </c>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>1795</t>
+        </is>
+      </c>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr">
+        <is>
+          <t>http://vocab.getty.edu/page/ulan/500100483</t>
+        </is>
+      </c>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>ca. 1785</t>
+        </is>
+      </c>
+      <c r="AJ38" t="n">
+        <v>1782</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1785</v>
+      </c>
+      <c r="AL38" t="inlineStr">
+        <is>
+          <t>Earthenware, basalt</t>
+        </is>
+      </c>
+      <c r="AM38" t="inlineStr">
+        <is>
+          <t>H. 12 in. (30.5 cm)</t>
+        </is>
+      </c>
+      <c r="AN38" t="inlineStr"/>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>Harris Brisbane Dick Fund, 1938</t>
+        </is>
+      </c>
+      <c r="AP38" t="inlineStr">
+        <is>
+          <t>Made in</t>
+        </is>
+      </c>
+      <c r="AQ38" t="inlineStr"/>
+      <c r="AR38" t="inlineStr"/>
+      <c r="AS38" t="inlineStr">
+        <is>
+          <t>Staffordshire</t>
+        </is>
+      </c>
+      <c r="AT38" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="AU38" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="AV38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr"/>
+      <c r="AX38" t="inlineStr"/>
+      <c r="AY38" t="inlineStr"/>
+      <c r="AZ38" t="inlineStr"/>
+      <c r="BA38" t="inlineStr"/>
+      <c r="BB38" t="inlineStr"/>
+      <c r="BC38" t="inlineStr"/>
+      <c r="BD38" t="inlineStr">
+        <is>
+          <t>2021-04-06T04:41:04.967Z</t>
+        </is>
+      </c>
+      <c r="BE38" t="inlineStr">
+        <is>
+          <t>Metropolitan Museum of Art, New York, NY</t>
+        </is>
+      </c>
+      <c r="BF38" t="inlineStr">
+        <is>
+          <t>https://www.metmuseum.org/art/collection/search/37</t>
+        </is>
+      </c>
+      <c r="BG38" t="inlineStr"/>
+      <c r="BH38" t="inlineStr"/>
+      <c r="BI38" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ38" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="BK38" t="inlineStr"/>
+      <c r="BL38" t="inlineStr">
+        <is>
+          <t>Overall</t>
+        </is>
+      </c>
+      <c r="BM38" t="inlineStr"/>
+      <c r="BN38" t="inlineStr"/>
+      <c r="BO38" t="inlineStr">
+        <is>
+          <t>Cannons</t>
+        </is>
+      </c>
+      <c r="BP38" t="inlineStr">
+        <is>
+          <t>http://vocab.getty.edu/page/aat/300036936</t>
+        </is>
+      </c>
+      <c r="BQ38" t="inlineStr">
+        <is>
+          <t>https://www.wikidata.org/wiki/Q81103</t>
+        </is>
+      </c>
+      <c r="BR38" t="inlineStr">
+        <is>
+          <t>Swords</t>
+        </is>
+      </c>
+      <c r="BS38" t="inlineStr">
+        <is>
+          <t>http://vocab.getty.edu/page/aat/300037048</t>
+        </is>
+      </c>
+      <c r="BT38" t="inlineStr">
+        <is>
+          <t>https://www.wikidata.org/wiki/Q12791</t>
+        </is>
+      </c>
+      <c r="BU38" t="inlineStr">
+        <is>
+          <t>Men</t>
+        </is>
+      </c>
+      <c r="BV38" t="inlineStr">
+        <is>
+          <t>http://vocab.getty.edu/page/aat/300025928</t>
+        </is>
+      </c>
+      <c r="BW38" t="inlineStr">
+        <is>
+          <t>https://www.wikidata.org/wiki/Q8441</t>
+        </is>
+      </c>
+      <c r="BX38" t="inlineStr"/>
+      <c r="BY38" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="BZ38" t="inlineStr"/>
+      <c r="CA38" t="inlineStr"/>
+      <c r="CB38" t="inlineStr"/>
+      <c r="CC38" t="inlineStr"/>
+      <c r="CD38" t="inlineStr"/>
+      <c r="CE38" t="inlineStr"/>
+      <c r="CF38" t="inlineStr"/>
+      <c r="CG38" t="inlineStr"/>
+      <c r="CH38" t="inlineStr"/>
+      <c r="CI38" t="inlineStr"/>
+      <c r="CJ38" t="inlineStr"/>
+      <c r="CK38" t="inlineStr"/>
+      <c r="CL38" t="inlineStr"/>
+      <c r="CM38" t="inlineStr"/>
+      <c r="CN38" t="inlineStr"/>
+      <c r="CO38" t="inlineStr"/>
+      <c r="CP38" t="inlineStr"/>
+      <c r="CQ38" t="inlineStr"/>
+      <c r="CR38" t="inlineStr"/>
+      <c r="CS38" t="inlineStr">
+        <is>
+          <t>https://images.metmuseum.org/CRDImages/ad/original/DP247756.jpg</t>
+        </is>
+      </c>
+      <c r="CT38" t="inlineStr">
+        <is>
+          <t>https://images.metmuseum.org/CRDImages/ad/original/117430.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>38.165.50</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1938</t>
+        </is>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>https://images.metmuseum.org/CRDImages/ad/original/DP247753.jpg</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://images.metmuseum.org/CRDImages/ad/web-large/DP247753.jpg</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>164285</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Maker</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Pierre Stephan</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>http://vocab.getty.edu/page/ulan/500100483</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>The American Wing</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Figure</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>Figure of Admiral Samuel Hood</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>British (American market)</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Maker</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>Pierre Stephan</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>French, active ca. 1770–95</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Stephan, Pierre</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>1765</t>
+        </is>
+      </c>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>1795</t>
+        </is>
+      </c>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>http://vocab.getty.edu/page/ulan/500100483</t>
+        </is>
+      </c>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>ca. 1785</t>
+        </is>
+      </c>
+      <c r="AJ39" t="n">
+        <v>1782</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1785</v>
+      </c>
+      <c r="AL39" t="inlineStr">
+        <is>
+          <t>Earthenware, basalt</t>
+        </is>
+      </c>
+      <c r="AM39" t="inlineStr">
+        <is>
+          <t>H. 12 3/8 in. (31.4 cm)</t>
+        </is>
+      </c>
+      <c r="AN39" t="inlineStr"/>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>Harris Brisbane Dick Fund, 1938</t>
+        </is>
+      </c>
+      <c r="AP39" t="inlineStr">
+        <is>
+          <t>Made in</t>
+        </is>
+      </c>
+      <c r="AQ39" t="inlineStr"/>
+      <c r="AR39" t="inlineStr"/>
+      <c r="AS39" t="inlineStr">
+        <is>
+          <t>Staffordshire</t>
+        </is>
+      </c>
+      <c r="AT39" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="AU39" t="inlineStr">
+        <is>
+          <t>West Midlands</t>
+        </is>
+      </c>
+      <c r="AV39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr"/>
+      <c r="AX39" t="inlineStr"/>
+      <c r="AY39" t="inlineStr"/>
+      <c r="AZ39" t="inlineStr"/>
+      <c r="BA39" t="inlineStr"/>
+      <c r="BB39" t="inlineStr"/>
+      <c r="BC39" t="inlineStr"/>
+      <c r="BD39" t="inlineStr">
+        <is>
+          <t>2021-04-06T04:41:04.967Z</t>
+        </is>
+      </c>
+      <c r="BE39" t="inlineStr">
+        <is>
+          <t>Metropolitan Museum of Art, New York, NY</t>
+        </is>
+      </c>
+      <c r="BF39" t="inlineStr">
+        <is>
+          <t>https://www.metmuseum.org/art/collection/search/38</t>
+        </is>
+      </c>
+      <c r="BG39" t="inlineStr"/>
+      <c r="BH39" t="inlineStr"/>
+      <c r="BI39" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ39" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="BK39" t="inlineStr"/>
+      <c r="BL39" t="inlineStr">
+        <is>
+          <t>Overall</t>
+        </is>
+      </c>
+      <c r="BM39" t="inlineStr"/>
+      <c r="BN39" t="inlineStr"/>
+      <c r="BO39" t="inlineStr">
+        <is>
+          <t>Cannons</t>
+        </is>
+      </c>
+      <c r="BP39" t="inlineStr">
+        <is>
+          <t>http://vocab.getty.edu/page/aat/300036936</t>
+        </is>
+      </c>
+      <c r="BQ39" t="inlineStr">
+        <is>
+          <t>https://www.wikidata.org/wiki/Q81103</t>
+        </is>
+      </c>
+      <c r="BR39" t="inlineStr">
+        <is>
+          <t>Swords</t>
+        </is>
+      </c>
+      <c r="BS39" t="inlineStr">
+        <is>
+          <t>http://vocab.getty.edu/page/aat/300037048</t>
+        </is>
+      </c>
+      <c r="BT39" t="inlineStr">
+        <is>
+          <t>https://www.wikidata.org/wiki/Q12791</t>
+        </is>
+      </c>
+      <c r="BU39" t="inlineStr">
+        <is>
+          <t>Men</t>
+        </is>
+      </c>
+      <c r="BV39" t="inlineStr">
+        <is>
+          <t>http://vocab.getty.edu/page/aat/300025928</t>
+        </is>
+      </c>
+      <c r="BW39" t="inlineStr">
+        <is>
+          <t>https://www.wikidata.org/wiki/Q8441</t>
+        </is>
+      </c>
+      <c r="BX39" t="inlineStr"/>
+      <c r="BY39" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="BZ39" t="inlineStr"/>
+      <c r="CA39" t="inlineStr"/>
+      <c r="CB39" t="inlineStr"/>
+      <c r="CC39" t="inlineStr"/>
+      <c r="CD39" t="inlineStr"/>
+      <c r="CE39" t="inlineStr"/>
+      <c r="CF39" t="inlineStr"/>
+      <c r="CG39" t="inlineStr"/>
+      <c r="CH39" t="inlineStr"/>
+      <c r="CI39" t="inlineStr"/>
+      <c r="CJ39" t="inlineStr"/>
+      <c r="CK39" t="inlineStr"/>
+      <c r="CL39" t="inlineStr"/>
+      <c r="CM39" t="inlineStr"/>
+      <c r="CN39" t="inlineStr"/>
+      <c r="CO39" t="inlineStr"/>
+      <c r="CP39" t="inlineStr">
+        <is>
+          <t>Admirals</t>
+        </is>
+      </c>
+      <c r="CQ39" t="inlineStr">
+        <is>
+          <t>http://vocab.getty.edu/page/aat/300236014</t>
+        </is>
+      </c>
+      <c r="CR39" t="inlineStr">
+        <is>
+          <t>https://www.wikidata.org/wiki/Q132851</t>
+        </is>
+      </c>
+      <c r="CS39" t="inlineStr">
+        <is>
+          <t>https://images.metmuseum.org/CRDImages/ad/original/DP247755.jpg</t>
+        </is>
+      </c>
+      <c r="CT39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>18.11.10</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1918</t>
+        </is>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>https://images.metmuseum.org/CRDImages/ad/original/37808.jpg</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://images.metmuseum.org/CRDImages/ad/web-large/37808.jpg</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>The American Wing</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Advertisement</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Advertisement for Norwich Stone Ware Factory</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>American</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="inlineStr"/>
+      <c r="AH40" t="inlineStr"/>
+      <c r="AI40" t="inlineStr">
+        <is>
+          <t>1770–1800</t>
+        </is>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1770</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AL40" t="inlineStr">
+        <is>
+          <t>Paper</t>
+        </is>
+      </c>
+      <c r="AM40" t="inlineStr">
+        <is>
+          <t>11 x 9 in. (27.9 x 22.9 cm)</t>
+        </is>
+      </c>
+      <c r="AN40" t="inlineStr"/>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>Rogers Fund, 1918</t>
+        </is>
+      </c>
+      <c r="AP40" t="inlineStr">
+        <is>
+          <t>Made in</t>
+        </is>
+      </c>
+      <c r="AQ40" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="AR40" t="inlineStr">
+        <is>
+          <t>Connecticut</t>
+        </is>
+      </c>
+      <c r="AS40" t="inlineStr"/>
+      <c r="AT40" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="AU40" t="inlineStr">
+        <is>
+          <t>New England</t>
+        </is>
+      </c>
+      <c r="AV40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr"/>
+      <c r="AX40" t="inlineStr"/>
+      <c r="AY40" t="inlineStr"/>
+      <c r="AZ40" t="inlineStr"/>
+      <c r="BA40" t="inlineStr"/>
+      <c r="BB40" t="inlineStr"/>
+      <c r="BC40" t="inlineStr"/>
+      <c r="BD40" t="inlineStr">
+        <is>
+          <t>2021-04-06T04:41:04.967Z</t>
+        </is>
+      </c>
+      <c r="BE40" t="inlineStr">
+        <is>
+          <t>Metropolitan Museum of Art, New York, NY</t>
+        </is>
+      </c>
+      <c r="BF40" t="inlineStr">
+        <is>
+          <t>https://www.metmuseum.org/art/collection/search/39</t>
+        </is>
+      </c>
+      <c r="BG40" t="inlineStr"/>
+      <c r="BH40" t="inlineStr"/>
+      <c r="BI40" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ40" t="inlineStr"/>
+      <c r="BK40" t="inlineStr"/>
+      <c r="BL40" t="inlineStr">
+        <is>
+          <t>Overall</t>
+        </is>
+      </c>
+      <c r="BM40" t="inlineStr"/>
+      <c r="BN40" t="inlineStr"/>
+      <c r="BO40" t="inlineStr">
+        <is>
+          <t>Advertisements</t>
+        </is>
+      </c>
+      <c r="BP40" t="inlineStr">
+        <is>
+          <t>http://vocab.getty.edu/page/aat/300193993</t>
+        </is>
+      </c>
+      <c r="BQ40" t="inlineStr">
+        <is>
+          <t>https://www.wikidata.org/wiki/Q39911916</t>
+        </is>
+      </c>
+      <c r="BR40" t="inlineStr"/>
+      <c r="BS40" t="inlineStr"/>
+      <c r="BT40" t="inlineStr"/>
+      <c r="BU40" t="inlineStr"/>
+      <c r="BV40" t="inlineStr"/>
+      <c r="BW40" t="inlineStr"/>
+      <c r="BX40" t="inlineStr"/>
+      <c r="BY40" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="BZ40" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="CA40" t="inlineStr"/>
+      <c r="CB40" t="inlineStr"/>
+      <c r="CC40" t="inlineStr"/>
+      <c r="CD40" t="inlineStr"/>
+      <c r="CE40" t="inlineStr"/>
+      <c r="CF40" t="inlineStr"/>
+      <c r="CG40" t="inlineStr"/>
+      <c r="CH40" t="inlineStr"/>
+      <c r="CI40" t="inlineStr"/>
+      <c r="CJ40" t="inlineStr"/>
+      <c r="CK40" t="inlineStr"/>
+      <c r="CL40" t="inlineStr"/>
+      <c r="CM40" t="inlineStr"/>
+      <c r="CN40" t="inlineStr"/>
+      <c r="CO40" t="inlineStr"/>
+      <c r="CP40" t="inlineStr"/>
+      <c r="CQ40" t="inlineStr"/>
+      <c r="CR40" t="inlineStr"/>
+      <c r="CS40" t="inlineStr"/>
+      <c r="CT40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>46.140.143</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>https://images.metmuseum.org/CRDImages/ad/original/174118.jpg</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://images.metmuseum.org/CRDImages/ad/web-large/174118.jpg</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>1087</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Maker</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>New England Glass Company</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>http://vocab.getty.edu/page/ulan/500356007</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>https://www.wikidata.org/wiki/Q17083157</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>The American Wing</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Ale glass</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Ale Glass</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>American</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Maker</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>New England Glass Company</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>American, East Cambridge, Massachusetts, 1818–1888</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>New England Glass Company</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>1818</t>
+        </is>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>1888</t>
+        </is>
+      </c>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="inlineStr">
+        <is>
+          <t>https://www.wikidata.org/wiki/Q17083157</t>
+        </is>
+      </c>
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>http://vocab.getty.edu/page/ulan/500356007</t>
+        </is>
+      </c>
+      <c r="AI41" t="inlineStr">
+        <is>
+          <t>1830–70</t>
+        </is>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1830</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1870</v>
+      </c>
+      <c r="AL41" t="inlineStr">
+        <is>
+          <t>Pressed glass</t>
+        </is>
+      </c>
+      <c r="AM41" t="inlineStr">
+        <is>
+          <t>H. 6 9/16 in. (16.7 cm); Diam. 3 in. (7.6 cm)</t>
+        </is>
+      </c>
+      <c r="AN41" t="inlineStr"/>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>Gift of Mrs. Emily Winthrop Miles, 1946</t>
+        </is>
+      </c>
+      <c r="AP41" t="inlineStr">
+        <is>
+          <t>Made in</t>
+        </is>
+      </c>
+      <c r="AQ41" t="inlineStr">
+        <is>
+          <t>East Cambridge</t>
+        </is>
+      </c>
+      <c r="AR41" t="inlineStr">
+        <is>
+          <t>Massachusetts</t>
+        </is>
+      </c>
+      <c r="AS41" t="inlineStr"/>
+      <c r="AT41" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="AU41" t="inlineStr">
+        <is>
+          <t>New England</t>
+        </is>
+      </c>
+      <c r="AV41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr"/>
+      <c r="AX41" t="inlineStr"/>
+      <c r="AY41" t="inlineStr"/>
+      <c r="AZ41" t="inlineStr"/>
+      <c r="BA41" t="inlineStr"/>
+      <c r="BB41" t="inlineStr"/>
+      <c r="BC41" t="inlineStr"/>
+      <c r="BD41" t="inlineStr">
+        <is>
+          <t>2022-02-09T04:42:08.947Z</t>
+        </is>
+      </c>
+      <c r="BE41" t="inlineStr">
+        <is>
+          <t>Metropolitan Museum of Art, New York, NY</t>
+        </is>
+      </c>
+      <c r="BF41" t="inlineStr">
+        <is>
+          <t>https://www.metmuseum.org/art/collection/search/40</t>
+        </is>
+      </c>
+      <c r="BG41" t="inlineStr"/>
+      <c r="BH41" t="inlineStr"/>
+      <c r="BI41" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ41" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="BK41" t="inlineStr"/>
+      <c r="BL41" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="BM41" t="inlineStr"/>
+      <c r="BN41" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="BO41" t="inlineStr"/>
+      <c r="BP41" t="inlineStr"/>
+      <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
+      <c r="BS41" t="inlineStr"/>
+      <c r="BT41" t="inlineStr"/>
+      <c r="BU41" t="inlineStr"/>
+      <c r="BV41" t="inlineStr"/>
+      <c r="BW41" t="inlineStr"/>
+      <c r="BX41" t="inlineStr"/>
+      <c r="BY41" t="n">
+        <v>16.6688</v>
+      </c>
+      <c r="BZ41" t="inlineStr"/>
+      <c r="CA41" t="inlineStr"/>
+      <c r="CB41" t="inlineStr"/>
+      <c r="CC41" t="inlineStr"/>
+      <c r="CD41" t="inlineStr"/>
+      <c r="CE41" t="inlineStr"/>
+      <c r="CF41" t="inlineStr"/>
+      <c r="CG41" t="inlineStr"/>
+      <c r="CH41" t="inlineStr"/>
+      <c r="CI41" t="inlineStr"/>
+      <c r="CJ41" t="inlineStr"/>
+      <c r="CK41" t="inlineStr"/>
+      <c r="CL41" t="inlineStr"/>
+      <c r="CM41" t="inlineStr"/>
+      <c r="CN41" t="inlineStr"/>
+      <c r="CO41" t="inlineStr"/>
+      <c r="CP41" t="inlineStr"/>
+      <c r="CQ41" t="inlineStr"/>
+      <c r="CR41" t="inlineStr"/>
+      <c r="CS41" t="inlineStr"/>
+      <c r="CT41" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
